--- a/agent/models/cv_results/regRaF.xlsx
+++ b/agent/models/cv_results/regRaF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U109"/>
+  <dimension ref="A1:U163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5052881240844727</v>
+        <v>0.5612511157989502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004027433336117999</v>
+        <v>0.02437932334578881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005996465682983398</v>
+        <v>0.00719609260559082</v>
       </c>
       <c r="E2" t="n">
-        <v>6.743495761743046e-07</v>
+        <v>0.0004002334214154147</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.1790086713112925</v>
+        <v>-0.2921985276702428</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1748235859924617</v>
+        <v>-0.2607520278426135</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1862803765205754</v>
+        <v>-0.2612400607965762</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1669559653010491</v>
+        <v>-0.3006032246791761</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1692006983899853</v>
+        <v>-0.2798497541316545</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1752538595030728</v>
+        <v>-0.2789287190240526</v>
       </c>
       <c r="T2" t="n">
-        <v>0.006947857687018734</v>
+        <v>0.01606238497088023</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -609,16 +609,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.062143039703369</v>
+        <v>1.092923831939697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04033616232584233</v>
+        <v>0.01307042667517967</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01079397201538086</v>
+        <v>0.01039304733276367</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001598095903641466</v>
+        <v>0.000489961088017351</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -649,28 +649,28 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>-0.1760191778399677</v>
+        <v>-0.2942758742870317</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1742560577843971</v>
+        <v>-0.2585449538246597</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1868579258370749</v>
+        <v>-0.2618156595434126</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1676434917089929</v>
+        <v>-0.2921528957719964</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.169701522593479</v>
+        <v>-0.2773455623906201</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1748956351527823</v>
+        <v>-0.2768269891635441</v>
       </c>
       <c r="T3" t="n">
-        <v>0.006698360927922615</v>
+        <v>0.01482692656427463</v>
       </c>
       <c r="U3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -678,16 +678,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3056107997894287</v>
+        <v>0.3605766296386719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008128784423715577</v>
+        <v>0.01120697008805626</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005796480178833008</v>
+        <v>0.006196069717407227</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003998518949700412</v>
+        <v>0.0004001620556763773</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -718,28 +718,28 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>-0.182818619897024</v>
+        <v>-0.2963460971767589</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1752317101866197</v>
+        <v>-0.263779511265004</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1820457588778317</v>
+        <v>-0.2585109129865314</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1743223325633327</v>
+        <v>-0.2982562656781818</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1746917375764326</v>
+        <v>-0.2777982846698765</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.1778220318202481</v>
+        <v>-0.2789382143552706</v>
       </c>
       <c r="T4" t="n">
-        <v>0.003783177653066405</v>
+        <v>0.01627625172769883</v>
       </c>
       <c r="U4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6028270721435547</v>
+        <v>0.6963692665100097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01308219062782644</v>
+        <v>0.01008062285643806</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009194183349609374</v>
+        <v>0.009194612503051758</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004000445906717348</v>
+        <v>0.00039970904295376</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -787,28 +787,28 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>-0.1825155184535855</v>
+        <v>-0.2967030866270207</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1756171662969012</v>
+        <v>-0.2623849809646518</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1808704656393904</v>
+        <v>-0.2578508678793018</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1736137207538155</v>
+        <v>-0.2947219351774323</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1735792156324686</v>
+        <v>-0.2768148425209294</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1772392173552322</v>
+        <v>-0.2776951426338672</v>
       </c>
       <c r="T5" t="n">
-        <v>0.003746897522885712</v>
+        <v>0.0160011550728658</v>
       </c>
       <c r="U5" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -816,16 +816,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2030745983123779</v>
+        <v>0.2460484027862549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003485324252469358</v>
+        <v>0.00614132074698965</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005596828460693359</v>
+        <v>0.005596160888671875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004892597043489572</v>
+        <v>0.0004896876868744213</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>-0.1906720644736157</v>
+        <v>-0.3070566616377651</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1911555198384034</v>
+        <v>-0.278462616350804</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1964865752242738</v>
+        <v>-0.2622363154476012</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1882967220931527</v>
+        <v>-0.3047389211544996</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1855922069573528</v>
+        <v>-0.283007446987743</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.1904406177173597</v>
+        <v>-0.2871003923156826</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003611692959383754</v>
+        <v>0.01684610387259955</v>
       </c>
       <c r="U6" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
@@ -885,16 +885,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4023506641387939</v>
+        <v>0.4958933353424072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009040778909144015</v>
+        <v>0.01351789928644031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008595085144042969</v>
+        <v>0.009194040298461914</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004896680130773954</v>
+        <v>0.0003998761526186849</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -925,28 +925,28 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>-0.1905943702908486</v>
+        <v>-0.3069185036338346</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1909034206052432</v>
+        <v>-0.2794212663763973</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1951308521882038</v>
+        <v>-0.2620876416857096</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.1874749585200347</v>
+        <v>-0.3042675533058464</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1858130515178435</v>
+        <v>-0.2830728210842661</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.1899833306244348</v>
+        <v>-0.2871535572172109</v>
       </c>
       <c r="T7" t="n">
-        <v>0.003206246145796871</v>
+        <v>0.01666302985318004</v>
       </c>
       <c r="U7" t="n">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
@@ -954,16 +954,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3603763580322266</v>
+        <v>0.3915573120117187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002869006489994002</v>
+        <v>0.004992479090700723</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005797147750854492</v>
+        <v>0.00659646987915039</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0003998290518584759</v>
+        <v>0.000489804951753561</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -994,28 +994,28 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>-0.1786509880691468</v>
+        <v>-0.2873414463370444</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.1712237546221806</v>
+        <v>-0.2564316497508211</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1791506248750968</v>
+        <v>-0.264292801033243</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.1667181704426159</v>
+        <v>-0.2939652233689856</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1727110528725819</v>
+        <v>-0.274155377283586</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1736909181763244</v>
+        <v>-0.275237299554736</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004692055701984239</v>
+        <v>0.01394166824992808</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1023,16 +1023,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7197538852691651</v>
+        <v>0.7837153434753418</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009656969500303047</v>
+        <v>0.01050832259737519</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009595012664794922</v>
+        <v>0.009994077682495116</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0004898628356560269</v>
+        <v>0.000894415729943082</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1063,28 +1063,28 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>-0.1770030089613874</v>
+        <v>-0.2905584260652345</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.1702480638038316</v>
+        <v>-0.2567333667158609</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1791538906553893</v>
+        <v>-0.2626028077822183</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1668215237942867</v>
+        <v>-0.290844710783556</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1717667022026063</v>
+        <v>-0.2728624879636352</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.1729986378835003</v>
+        <v>-0.274720359862101</v>
       </c>
       <c r="T9" t="n">
-        <v>0.004498048158391208</v>
+        <v>0.01403322993851189</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1092,16 +1092,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2740298748016358</v>
+        <v>0.3116078853607178</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005596641180328762</v>
+        <v>0.004575752790533428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005597114562988281</v>
+        <v>0.005996084213256836</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004900776565001061</v>
+        <v>8.996945507103542e-07</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>-0.1804225217199049</v>
+        <v>-0.294601455860353</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.1749760924827644</v>
+        <v>-0.2641926998471641</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1805250433968949</v>
+        <v>-0.2616191990454704</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1730808703694137</v>
+        <v>-0.2973681274045941</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1736223946686138</v>
+        <v>-0.2774154376914176</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.1765253845275183</v>
+        <v>-0.2790393839697998</v>
       </c>
       <c r="T10" t="n">
-        <v>0.003282599065188715</v>
+        <v>0.01486368050770391</v>
       </c>
       <c r="U10" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -1161,16 +1161,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5426619529724122</v>
+        <v>0.6200165271759033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01005422912933179</v>
+        <v>0.01099525011917358</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0091949462890625</v>
+        <v>0.008993816375732423</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003996611317067487</v>
+        <v>8.313939940530154e-07</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1201,28 +1201,28 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>-0.1813195192519464</v>
+        <v>-0.2946847061810083</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1753235782922508</v>
+        <v>-0.2631214853935149</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1793971481030442</v>
+        <v>-0.2614245009283966</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1725037962961354</v>
+        <v>-0.2956186447782927</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1730750029135909</v>
+        <v>-0.2754931370394687</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1763238089713935</v>
+        <v>-0.2780684948641362</v>
       </c>
       <c r="T11" t="n">
-        <v>0.003479949243227651</v>
+        <v>0.01477277451739634</v>
       </c>
       <c r="U11" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1230,16 +1230,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.198676586151123</v>
+        <v>0.2308573722839355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004066886081274684</v>
+        <v>0.004977377485681129</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00519723892211914</v>
+        <v>0.005796051025390625</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0004000902850766651</v>
+        <v>0.0003996374640937987</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1270,28 +1270,28 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>-0.1906287765529726</v>
+        <v>-0.3062781550679262</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.1907185329366337</v>
+        <v>-0.2783085697601284</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.1966340016189154</v>
+        <v>-0.2641383176817751</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1878614734099184</v>
+        <v>-0.3055706253826375</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.1860174450618694</v>
+        <v>-0.2841199914635509</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.1903720459160619</v>
+        <v>-0.2876831318712035</v>
       </c>
       <c r="T12" t="n">
-        <v>0.003596208448012742</v>
+        <v>0.01625222428692152</v>
       </c>
       <c r="U12" t="n">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
@@ -1299,16 +1299,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3871597290039063</v>
+        <v>0.4637135982513428</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009576792732886035</v>
+        <v>0.01573895635002825</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008595323562622071</v>
+        <v>0.008793687820434571</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004894731361808656</v>
+        <v>0.0003994002269329666</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -1339,28 +1339,28 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>-0.1905221132692327</v>
+        <v>-0.3059263634354668</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.1906291608878531</v>
+        <v>-0.2784115199326618</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1952846518749733</v>
+        <v>-0.2637509023245486</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1871033971670932</v>
+        <v>-0.3051178712648165</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.1859584041958457</v>
+        <v>-0.2836549063870567</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.1898995454789996</v>
+        <v>-0.2873723126689101</v>
       </c>
       <c r="T13" t="n">
-        <v>0.003264056990623357</v>
+        <v>0.01619409517269664</v>
       </c>
       <c r="U13" t="n">
-        <v>73</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -1368,16 +1368,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2166648864746094</v>
+        <v>0.2402523517608643</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001165868778656224</v>
+        <v>0.002153254836697678</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005397415161132813</v>
+        <v>0.005596113204956055</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004896093863255838</v>
+        <v>0.0004900381352724373</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -1408,28 +1408,28 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>-0.1865754641701488</v>
+        <v>-0.2966993358791123</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1820843732416215</v>
+        <v>-0.2670720594596117</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1845700458894554</v>
+        <v>-0.2594631501965821</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1738497596605161</v>
+        <v>-0.3023885740542779</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1768219762000261</v>
+        <v>-0.2774324408642089</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.1807803238323536</v>
+        <v>-0.2806111120907586</v>
       </c>
       <c r="T14" t="n">
-        <v>0.00476124826878301</v>
+        <v>0.01657549385948836</v>
       </c>
       <c r="U14" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1437,16 +1437,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4343314170837402</v>
+        <v>0.4807111263275147</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004838883094068722</v>
+        <v>0.002755412575555928</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008195304870605468</v>
+        <v>0.009385871887207031</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000399875669299688</v>
+        <v>0.000496588880484145</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>-0.1865231205618589</v>
+        <v>-0.2964891982882053</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.1826290978607526</v>
+        <v>-0.2675268591537702</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1840157815558214</v>
+        <v>-0.2578908544690061</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1737506694478113</v>
+        <v>-0.3005061774754451</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1775063675428223</v>
+        <v>-0.2775949906877028</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1808850073938132</v>
+        <v>-0.2800016160148259</v>
       </c>
       <c r="T15" t="n">
-        <v>0.004624843860640562</v>
+        <v>0.01638642480993018</v>
       </c>
       <c r="U15" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1506,16 +1506,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2132677555084229</v>
+        <v>0.233655834197998</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002152750115242155</v>
+        <v>0.002923896189029114</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005396986007690429</v>
+        <v>0.005396223068237305</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0004895705146603966</v>
+        <v>0.0004899016841267571</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1546,28 +1546,28 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>-0.1866785784119064</v>
+        <v>-0.2972038065821812</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1834028984968638</v>
+        <v>-0.2687371277553964</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.18512042261397</v>
+        <v>-0.2596145263665591</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.1750327222992088</v>
+        <v>-0.3020531408179927</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.1766577872672709</v>
+        <v>-0.278464756218758</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.181378481817844</v>
+        <v>-0.2812146715481775</v>
       </c>
       <c r="T16" t="n">
-        <v>0.004663582927890448</v>
+        <v>0.01624630201572884</v>
       </c>
       <c r="U16" t="n">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1575,16 +1575,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4221388816833496</v>
+        <v>0.4703090667724609</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004268284307511514</v>
+        <v>0.005983188033385205</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008594655990600586</v>
+        <v>0.008994293212890626</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0004896094095454889</v>
+        <v>0.0006321081569985375</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>-0.186972994224519</v>
+        <v>-0.2976647870354594</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1838650718738165</v>
+        <v>-0.2686719884945851</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.1850590925997808</v>
+        <v>-0.2581430882134151</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.1744219966136979</v>
+        <v>-0.3006760715583341</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.1776439446209502</v>
+        <v>-0.2783121795997451</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.1815926199865529</v>
+        <v>-0.2806936229803078</v>
       </c>
       <c r="T17" t="n">
-        <v>0.004756863958471141</v>
+        <v>0.01640753636056502</v>
       </c>
       <c r="U17" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -1644,16 +1644,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1756914138793945</v>
+        <v>0.1954792022705078</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001719536620195861</v>
+        <v>0.001495458558081846</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005196666717529297</v>
+        <v>0.005596446990966797</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0003997803587494825</v>
+        <v>0.0004896291414227931</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1684,28 +1684,28 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>-0.1941927461950915</v>
+        <v>-0.3075498406314922</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1929705002872169</v>
+        <v>-0.2798328095454724</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.1976029458614464</v>
+        <v>-0.2621419429334084</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.1878835959188995</v>
+        <v>-0.3069280867732748</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.1884476398455743</v>
+        <v>-0.2849857466451286</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.1922194856216457</v>
+        <v>-0.2882876853057553</v>
       </c>
       <c r="T18" t="n">
-        <v>0.003645989153713488</v>
+        <v>0.01723068635838175</v>
       </c>
       <c r="U18" t="n">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -1713,16 +1713,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3467854022979736</v>
+        <v>0.3923573970794678</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007094798198368324</v>
+        <v>0.004221286783312451</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008394908905029298</v>
+        <v>0.008994197845458985</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0004897262103095201</v>
+        <v>8.996945507103542e-07</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -1753,28 +1753,28 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>-0.1936282548320819</v>
+        <v>-0.3083852072528046</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.1926590153880722</v>
+        <v>-0.2804480795542205</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.1960676078518164</v>
+        <v>-0.2626183165883462</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.1881543371690265</v>
+        <v>-0.3075389086775546</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.1889809315882593</v>
+        <v>-0.2843537082376315</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.1918980293658513</v>
+        <v>-0.2886688440621115</v>
       </c>
       <c r="T19" t="n">
-        <v>0.00294899492536797</v>
+        <v>0.01737610810278081</v>
       </c>
       <c r="U19" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -1782,16 +1782,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6140202522277832</v>
+        <v>0.6713847160339356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00387557584681434</v>
+        <v>0.003652760279245164</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006795978546142578</v>
+        <v>0.006995964050292969</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003998758398829301</v>
+        <v>4.862803948967729e-07</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1822,28 +1822,28 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>-0.1781822974567971</v>
+        <v>-0.291996927482044</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.1754982167987741</v>
+        <v>-0.2627542995432803</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.1881708668697537</v>
+        <v>-0.2623094607714126</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.1666573777827797</v>
+        <v>-0.3008035538808291</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.1717682887314093</v>
+        <v>-0.2796698786275188</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.1760554095279027</v>
+        <v>-0.279506824061017</v>
       </c>
       <c r="T20" t="n">
-        <v>0.007187778906000743</v>
+        <v>0.01540114510748914</v>
       </c>
       <c r="U20" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -1851,16 +1851,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.244722986221313</v>
+        <v>1.340970754623413</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03473724088110233</v>
+        <v>0.01800501579668062</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01047029495239258</v>
+        <v>0.01119327545166016</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0004270403975659729</v>
+        <v>0.0004000664041494148</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1891,28 +1891,28 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>-0.1761067807837782</v>
+        <v>-0.2945626142096275</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1750629256380801</v>
+        <v>-0.2627310415255239</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.1879863149612731</v>
+        <v>-0.2620790677568072</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.1680018688478986</v>
+        <v>-0.2935323918504782</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.1705704657826069</v>
+        <v>-0.2784735778179561</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.1755456712027274</v>
+        <v>-0.2782757386320786</v>
       </c>
       <c r="T21" t="n">
-        <v>0.006884462612438141</v>
+        <v>0.01415652979670459</v>
       </c>
       <c r="U21" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -1920,16 +1920,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2984054088592529</v>
+        <v>0.3703709602355957</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007649399689938908</v>
+        <v>0.00963990385632746</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002849197387695312</v>
+        <v>0.006196212768554687</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002721053658370684</v>
+        <v>0.0007476401470115034</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1960,28 +1960,28 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>-0.1829736175963159</v>
+        <v>-0.2958909268388569</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.1752691817293277</v>
+        <v>-0.264675930151148</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.1820293493624761</v>
+        <v>-0.2581384484166952</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.1743251309807037</v>
+        <v>-0.2993643627044849</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.1745578349095991</v>
+        <v>-0.2775413350099166</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.1778310229156845</v>
+        <v>-0.2791222006242203</v>
       </c>
       <c r="T22" t="n">
-        <v>0.003837715290381684</v>
+        <v>0.01638564632795184</v>
       </c>
       <c r="U22" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1989,16 +1989,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6100523471832275</v>
+        <v>0.7369444370269775</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02408387341404271</v>
+        <v>0.02031068150086127</v>
       </c>
       <c r="D23" t="n">
-        <v>0.009282970428466797</v>
+        <v>0.009594106674194336</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001004676232509961</v>
+        <v>0.0004896094095454889</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -2029,28 +2029,28 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>-0.1825556791077613</v>
+        <v>-0.296363054714802</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.1753702246091038</v>
+        <v>-0.263297149500907</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.1807413800975027</v>
+        <v>-0.2571836222513571</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.1734920142963496</v>
+        <v>-0.2954009256248259</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.1735392746559332</v>
+        <v>-0.2764395740602147</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.1771397145533301</v>
+        <v>-0.2777368652304214</v>
       </c>
       <c r="T23" t="n">
-        <v>0.003786941933254222</v>
+        <v>0.01607220032236507</v>
       </c>
       <c r="U23" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -2058,16 +2058,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2058500766754151</v>
+        <v>0.2472465515136719</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004913762022513926</v>
+        <v>0.007333226763698381</v>
       </c>
       <c r="D24" t="n">
-        <v>0.007650566101074219</v>
+        <v>0.005596685409545899</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003906397938953731</v>
+        <v>0.0004901157781488557</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -2098,28 +2098,28 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>-0.1906720644736157</v>
+        <v>-0.3068006123417589</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.1911485977536024</v>
+        <v>-0.278462616350804</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.1964865752242738</v>
+        <v>-0.2621979187463995</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.1882967220931527</v>
+        <v>-0.3047389211544996</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.1855922069573528</v>
+        <v>-0.283007446987743</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.1904392333003995</v>
+        <v>-0.287041503116241</v>
       </c>
       <c r="T24" t="n">
-        <v>0.003611419977524208</v>
+        <v>0.01679699731458169</v>
       </c>
       <c r="U24" t="n">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
@@ -2127,16 +2127,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4017283916473389</v>
+        <v>0.4960928916931152</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008683762943517762</v>
+        <v>0.01429679841586091</v>
       </c>
       <c r="D25" t="n">
-        <v>0.009256839752197266</v>
+        <v>0.008994817733764648</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009881692599633012</v>
+        <v>8.395584517316346e-07</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -2167,28 +2167,28 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>-0.1905943702908486</v>
+        <v>-0.3067029176253754</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1908999595628427</v>
+        <v>-0.2794212663763973</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.1951308521882038</v>
+        <v>-0.2620195492247747</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.1874749585200347</v>
+        <v>-0.3042675533058464</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.1858130515178435</v>
+        <v>-0.2830587674203958</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.1899826384159546</v>
+        <v>-0.2870940107905579</v>
       </c>
       <c r="T25" t="n">
-        <v>0.003206047796879088</v>
+        <v>0.01663323545493409</v>
       </c>
       <c r="U25" t="n">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
@@ -2196,16 +2196,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3713650703430176</v>
+        <v>0.412144136428833</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01065555821058133</v>
+        <v>0.002797934026794291</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002012968063354492</v>
+        <v>0.006797122955322266</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003117368973123793</v>
+        <v>0.0004002098387788007</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>-0.1787816141593187</v>
+        <v>-0.2862184339996799</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.1709833435720542</v>
+        <v>-0.2587254413160566</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.1794292020693564</v>
+        <v>-0.2643949962791304</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.1665946199937841</v>
+        <v>-0.2951906080900881</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.1728877078097152</v>
+        <v>-0.2744528316725658</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.1737352975208457</v>
+        <v>-0.2757964622715042</v>
       </c>
       <c r="T26" t="n">
-        <v>0.004840801483710014</v>
+        <v>0.01347567373572379</v>
       </c>
       <c r="U26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2265,16 +2265,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7540533065795898</v>
+        <v>0.8560785293579102</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0147598677278719</v>
+        <v>0.02513155090531357</v>
       </c>
       <c r="D27" t="n">
-        <v>0.008478450775146484</v>
+        <v>0.01039414405822754</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003209182688927558</v>
+        <v>0.0004894537139056068</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -2305,28 +2305,28 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>-0.176981737600921</v>
+        <v>-0.2902550897958334</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.1701495038785613</v>
+        <v>-0.258803204404186</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.1792690759603084</v>
+        <v>-0.2627826549228583</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.1667870554393732</v>
+        <v>-0.2912878094528447</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1716547594957123</v>
+        <v>-0.2739305133352062</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.1729684264749753</v>
+        <v>-0.2754118543821857</v>
       </c>
       <c r="T27" t="n">
-        <v>0.004553816938512758</v>
+        <v>0.01349003996527213</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2334,16 +2334,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2733452320098877</v>
+        <v>0.3379922866821289</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008149134172470721</v>
+        <v>0.006332604789427775</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00605158805847168</v>
+        <v>0.00639495849609375</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004227682809790591</v>
+        <v>0.0004893176806320467</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -2374,28 +2374,28 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>-0.1805354214512226</v>
+        <v>-0.2940645651913447</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.1750116323790123</v>
+        <v>-0.264293511775828</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.1806288573955614</v>
+        <v>-0.2616518364666001</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.1730666934798259</v>
+        <v>-0.2975705920455997</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.1736718323874553</v>
+        <v>-0.2773306975147294</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.1765828874186156</v>
+        <v>-0.2789822405988204</v>
       </c>
       <c r="T28" t="n">
-        <v>0.003325630825643968</v>
+        <v>0.01477722965243039</v>
       </c>
       <c r="U28" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -2403,16 +2403,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5355340957641601</v>
+        <v>0.7025652408599854</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01115085927587055</v>
+        <v>0.08391345802717513</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01012177467346191</v>
+        <v>0.01019420623779297</v>
       </c>
       <c r="E29" t="n">
-        <v>3.189053261501768e-05</v>
+        <v>0.0007472071376744229</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -2443,25 +2443,25 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>-0.1814126283052941</v>
+        <v>-0.294521146891297</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.1753752291490556</v>
+        <v>-0.2632058487513683</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.1794517137654198</v>
+        <v>-0.2613880339986013</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.1724873730940188</v>
+        <v>-0.2955276409766805</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.1731061095881661</v>
+        <v>-0.275537170685538</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.1763666107803909</v>
+        <v>-0.278035968260697</v>
       </c>
       <c r="T29" t="n">
-        <v>0.00351119193097391</v>
+        <v>0.0147040802368834</v>
       </c>
       <c r="U29" t="n">
         <v>27</v>
@@ -2472,16 +2472,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1988844871520996</v>
+        <v>0.2338547706604004</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003587449926970515</v>
+        <v>0.005363028793586528</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005270910263061523</v>
+        <v>0.005596733093261719</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00394530353755456</v>
+        <v>0.0004895704682168956</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -2512,28 +2512,28 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>-0.1906287765529726</v>
+        <v>-0.3062781550679262</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.1907185329366337</v>
+        <v>-0.2783085697601284</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.1966340016189154</v>
+        <v>-0.2641383176817751</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.1878614734099184</v>
+        <v>-0.3055706253826375</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.1860174450618694</v>
+        <v>-0.2841199914635509</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.1903720459160619</v>
+        <v>-0.2876831318712035</v>
       </c>
       <c r="T30" t="n">
-        <v>0.003596208448012742</v>
+        <v>0.01625222428692152</v>
       </c>
       <c r="U30" t="n">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
@@ -2541,16 +2541,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3936151504516602</v>
+        <v>0.4813028335571289</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0139383074285276</v>
+        <v>0.02092966224675894</v>
       </c>
       <c r="D31" t="n">
-        <v>0.009696531295776366</v>
+        <v>0.008594417572021484</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0008291233263256031</v>
+        <v>0.0004889284999843673</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -2581,28 +2581,28 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>-0.1905221132692327</v>
+        <v>-0.3059263634354668</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.1906291608878531</v>
+        <v>-0.2784115199326618</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1952846518749733</v>
+        <v>-0.2637558005758238</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.1871033971670932</v>
+        <v>-0.3051178712648165</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.1859584041958457</v>
+        <v>-0.2836549063870567</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.1898995454789996</v>
+        <v>-0.2873732923191651</v>
       </c>
       <c r="T31" t="n">
-        <v>0.003264056990623357</v>
+        <v>0.01619266626778549</v>
       </c>
       <c r="U31" t="n">
-        <v>73</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -2610,16 +2610,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2153833389282226</v>
+        <v>0.2470473766326904</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004970848140641405</v>
+        <v>0.006611295647941207</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006059503555297852</v>
+        <v>0.005596494674682618</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00335561834451505</v>
+        <v>0.0004894731594072342</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -2650,28 +2650,28 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>-0.1865754641701488</v>
+        <v>-0.2966993358791123</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.1820843732416215</v>
+        <v>-0.2670720594596117</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.1845700458894554</v>
+        <v>-0.2594631501965821</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.1738497596605161</v>
+        <v>-0.3023885740542779</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.1768219762000261</v>
+        <v>-0.2774324408642089</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.1807803238323536</v>
+        <v>-0.2806111120907586</v>
       </c>
       <c r="T32" t="n">
-        <v>0.00476124826878301</v>
+        <v>0.01657549385948836</v>
       </c>
       <c r="U32" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -2679,16 +2679,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4256079196929932</v>
+        <v>0.5234764099121094</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007728696517224415</v>
+        <v>0.05123756218999845</v>
       </c>
       <c r="D33" t="n">
-        <v>0.008068847656249999</v>
+        <v>0.009993219375610351</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003114597832207816</v>
+        <v>0.0008931366769908751</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -2719,28 +2719,28 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>-0.1865231205618589</v>
+        <v>-0.2964891982882053</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.1826290978607526</v>
+        <v>-0.2675268591537702</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.1840157815558214</v>
+        <v>-0.2578908544690061</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.1737506694478113</v>
+        <v>-0.3005061774754451</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.1775063675428223</v>
+        <v>-0.2775949906877028</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.1808850073938132</v>
+        <v>-0.2800016160148259</v>
       </c>
       <c r="T33" t="n">
-        <v>0.004624843860640562</v>
+        <v>0.01638642480993018</v>
       </c>
       <c r="U33" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
@@ -2748,16 +2748,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2112658500671387</v>
+        <v>0.2482461929321289</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006422111019727767</v>
+        <v>0.004172842140863163</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0008160591125488282</v>
+        <v>0.006396484375</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0009994644972159642</v>
+        <v>0.0007997991573488389</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -2788,28 +2788,28 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>-0.1866785784119064</v>
+        <v>-0.2972038065821812</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.1834028984968638</v>
+        <v>-0.2687371277553964</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.18512042261397</v>
+        <v>-0.2596145263665591</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.1750327222992088</v>
+        <v>-0.3020531408179927</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.1766577872672709</v>
+        <v>-0.278464756218758</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.181378481817844</v>
+        <v>-0.2812146715481775</v>
       </c>
       <c r="T34" t="n">
-        <v>0.004663582927890448</v>
+        <v>0.01624630201572884</v>
       </c>
       <c r="U34" t="n">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -2817,16 +2817,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4145678043365478</v>
+        <v>0.4874984741210938</v>
       </c>
       <c r="C35" t="n">
-        <v>0.006679622084780241</v>
+        <v>0.01667948933591501</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006455135345458984</v>
+        <v>0.009993553161621094</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003680943982250127</v>
+        <v>0.001094452087759434</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -2857,28 +2857,28 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>-0.186972994224519</v>
+        <v>-0.2976647870354594</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.1838650718738165</v>
+        <v>-0.2686719884945851</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.1850590925997808</v>
+        <v>-0.2581430882134151</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.1744219966136979</v>
+        <v>-0.3006760715583341</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.1776439446209502</v>
+        <v>-0.2783121795997451</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.1815926199865529</v>
+        <v>-0.2806936229803078</v>
       </c>
       <c r="T35" t="n">
-        <v>0.004756863958471141</v>
+        <v>0.01640753636056502</v>
       </c>
       <c r="U35" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -2886,16 +2886,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1701408863067627</v>
+        <v>0.1996760368347168</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006111632525897604</v>
+        <v>0.01097323549704907</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00201573371887207</v>
+        <v>0.00519723892211914</v>
       </c>
       <c r="E36" t="n">
-        <v>0.003113605288675052</v>
+        <v>0.0003999712072671187</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -2926,28 +2926,28 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>-0.1941927461950915</v>
+        <v>-0.3075498406314922</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.1929705002872169</v>
+        <v>-0.2798328095454724</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.1976029458614464</v>
+        <v>-0.2621419429334084</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.1878835959188995</v>
+        <v>-0.3069280867732748</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.1884476398455743</v>
+        <v>-0.2849857466451286</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.1922194856216457</v>
+        <v>-0.2882876853057553</v>
       </c>
       <c r="T36" t="n">
-        <v>0.003645989153713488</v>
+        <v>0.01723068635838175</v>
       </c>
       <c r="U36" t="n">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
@@ -2955,16 +2955,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3488774299621582</v>
+        <v>0.4457237243652344</v>
       </c>
       <c r="C37" t="n">
-        <v>0.009564805280160363</v>
+        <v>0.0388191509827409</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01006474494934082</v>
+        <v>0.01059408187866211</v>
       </c>
       <c r="E37" t="n">
-        <v>1.764722721300933e-05</v>
+        <v>0.003260229368677527</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -2995,28 +2995,28 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>-0.1936282548320819</v>
+        <v>-0.3083852072528046</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.1926590153880722</v>
+        <v>-0.2804480795542205</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.1960676078518164</v>
+        <v>-0.2626183165883462</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.1881543371690265</v>
+        <v>-0.3075389086775546</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.1889809315882593</v>
+        <v>-0.2843537082376315</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.1918980293658513</v>
+        <v>-0.2886688440621115</v>
       </c>
       <c r="T37" t="n">
-        <v>0.00294899492536797</v>
+        <v>0.01737610810278081</v>
       </c>
       <c r="U37" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
@@ -3024,16 +3024,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6443341732025146</v>
+        <v>0.8035041809082031</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008134344632745647</v>
+        <v>0.04615382794101176</v>
       </c>
       <c r="D38" t="n">
-        <v>0.008052015304565429</v>
+        <v>0.007794570922851562</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003110267276869679</v>
+        <v>0.0007472964407727469</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -3064,28 +3064,28 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>-0.1782519393939392</v>
+        <v>-0.2943310788492112</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.1744074141520121</v>
+        <v>-0.2635059527432511</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.1881434952540478</v>
+        <v>-0.2623122337409542</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.1662527791763528</v>
+        <v>-0.305229627032009</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.171077051926298</v>
+        <v>-0.2806510780426562</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.17562653598053</v>
+        <v>-0.2812059940816163</v>
       </c>
       <c r="T38" t="n">
-        <v>0.007397545435539845</v>
+        <v>0.0168521592995809</v>
       </c>
       <c r="U38" t="n">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
@@ -3093,16 +3093,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.274605703353882</v>
+        <v>1.511064767837524</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01452796514537125</v>
+        <v>0.02837110753830392</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01009244918823242</v>
+        <v>0.0121922492980957</v>
       </c>
       <c r="E39" t="n">
-        <v>2.081185261572911e-05</v>
+        <v>0.001468218228080805</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -3133,28 +3133,28 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>-0.1765578978578891</v>
+        <v>-0.2961123728332256</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.1745757888369883</v>
+        <v>-0.2647300402042004</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.1892855670850644</v>
+        <v>-0.263995665968184</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.1679590308672238</v>
+        <v>-0.2959787680354252</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.1718537915329153</v>
+        <v>-0.276780627644144</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.1760464152360162</v>
+        <v>-0.2795194949370359</v>
       </c>
       <c r="T39" t="n">
-        <v>0.007220573074272488</v>
+        <v>0.01423692311563176</v>
       </c>
       <c r="U39" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
@@ -3162,16 +3162,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3039301872253418</v>
+        <v>0.3841625213623047</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01123102386790526</v>
+        <v>0.01173313175861776</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002843332290649414</v>
+        <v>0.006395912170410157</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002734121451472973</v>
+        <v>0.0004896096881842647</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -3202,28 +3202,28 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>-0.1830224806672144</v>
+        <v>-0.2957783260666029</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.175306280463383</v>
+        <v>-0.2645156200339289</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.1820293493624761</v>
+        <v>-0.2581142372147645</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.1743251309807037</v>
+        <v>-0.2997986306506423</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.1745578349095991</v>
+        <v>-0.2773725262377421</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.1778482152766752</v>
+        <v>-0.2791158680407361</v>
       </c>
       <c r="T40" t="n">
-        <v>0.003845908555511051</v>
+        <v>0.01650871985645313</v>
       </c>
       <c r="U40" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41">
@@ -3231,16 +3231,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6042630195617675</v>
+        <v>0.7821175575256347</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02322596275053573</v>
+        <v>0.01114108052599399</v>
       </c>
       <c r="D41" t="n">
-        <v>0.009687995910644532</v>
+        <v>0.009993362426757812</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0008243073154883065</v>
+        <v>0.0006321837808538049</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -3271,28 +3271,28 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>-0.1825562318873976</v>
+        <v>-0.2962495156031544</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.1754166010696461</v>
+        <v>-0.2632403509684612</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.1807413800975027</v>
+        <v>-0.2572076068310014</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.1734946957563175</v>
+        <v>-0.2956442803811831</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.1735392746559332</v>
+        <v>-0.2763751693434791</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.1771496366933594</v>
+        <v>-0.2777433846254558</v>
       </c>
       <c r="T41" t="n">
-        <v>0.00378229062979078</v>
+        <v>0.01610495029832821</v>
       </c>
       <c r="U41" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -3300,16 +3300,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1966011524200439</v>
+        <v>0.2548420906066894</v>
       </c>
       <c r="C42" t="n">
-        <v>0.005248823236148279</v>
+        <v>0.01135917422225964</v>
       </c>
       <c r="D42" t="n">
-        <v>0.005651378631591797</v>
+        <v>0.005396747589111328</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003894837965562465</v>
+        <v>0.0004893759474033504</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -3340,28 +3340,28 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>-0.1906720644736157</v>
+        <v>-0.3068006123417589</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.1911485977536024</v>
+        <v>-0.278462616350804</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.1964865752242738</v>
+        <v>-0.2621979187463995</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.1882967220931527</v>
+        <v>-0.3047389211544996</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.1855922069573528</v>
+        <v>-0.283007446987743</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.1904392333003995</v>
+        <v>-0.287041503116241</v>
       </c>
       <c r="T42" t="n">
-        <v>0.003611419977524208</v>
+        <v>0.01679699731458169</v>
       </c>
       <c r="U42" t="n">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -3369,16 +3369,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4067698955535889</v>
+        <v>0.5058866500854492</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01035021292144077</v>
+        <v>0.01739523430571958</v>
       </c>
       <c r="D43" t="n">
-        <v>0.008050441741943359</v>
+        <v>0.008994960784912109</v>
       </c>
       <c r="E43" t="n">
-        <v>0.003105799342047758</v>
+        <v>3.234066955149302e-07</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -3409,28 +3409,28 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>-0.1905943702908486</v>
+        <v>-0.3067029176253754</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.1908999595628427</v>
+        <v>-0.2794212663763973</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.1951308521882038</v>
+        <v>-0.2620195492247747</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.1874749585200347</v>
+        <v>-0.3042675533058464</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1858130515178435</v>
+        <v>-0.2830587674203958</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.1899826384159546</v>
+        <v>-0.2870940107905579</v>
       </c>
       <c r="T43" t="n">
-        <v>0.003206047796879088</v>
+        <v>0.01663323545493409</v>
       </c>
       <c r="U43" t="n">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
@@ -3438,16 +3438,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3684782505035401</v>
+        <v>0.4191411018371582</v>
       </c>
       <c r="C44" t="n">
-        <v>0.007646682470787906</v>
+        <v>0.003320454383277975</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00403742790222168</v>
+        <v>0.006196022033691406</v>
       </c>
       <c r="E44" t="n">
-        <v>0.004213836977294641</v>
+        <v>0.0004001868456484587</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -3478,28 +3478,28 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>-0.1787710792628426</v>
+        <v>-0.2861405189500902</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.1710437509605571</v>
+        <v>-0.2590915941377459</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.1794448779507236</v>
+        <v>-0.2644600566002133</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.1667091180739577</v>
+        <v>-0.2951538260259775</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.1728825032153146</v>
+        <v>-0.2746056943982169</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.1737702658926791</v>
+        <v>-0.2758903380224488</v>
       </c>
       <c r="T44" t="n">
-        <v>0.004801899023027219</v>
+        <v>0.01334651728240819</v>
       </c>
       <c r="U44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -3507,16 +3507,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7404130935668946</v>
+        <v>0.841860008239746</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01053051273423151</v>
+        <v>0.02062509257975158</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01011123657226562</v>
+        <v>0.009794092178344727</v>
       </c>
       <c r="E45" t="n">
-        <v>2.223544382971229e-05</v>
+        <v>0.0003998761241881718</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -3547,28 +3547,28 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>-0.1770191970412628</v>
+        <v>-0.2900963463952947</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.17017524932152</v>
+        <v>-0.2589951209490334</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.1792564785447268</v>
+        <v>-0.2627997248351638</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.1667801417242922</v>
+        <v>-0.2914378841219793</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.1716545344694822</v>
+        <v>-0.2740465080474566</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.1729771202202568</v>
+        <v>-0.2754751168697856</v>
       </c>
       <c r="T45" t="n">
-        <v>0.004555677382668635</v>
+        <v>0.01343790938451308</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -3576,16 +3576,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2672310829162597</v>
+        <v>0.3100088119506836</v>
       </c>
       <c r="C46" t="n">
-        <v>0.004863538017046697</v>
+        <v>0.004704634263867017</v>
       </c>
       <c r="D46" t="n">
-        <v>0.007252693176269531</v>
+        <v>0.005796337127685547</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003740172101536843</v>
+        <v>0.0004001381108439656</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -3616,28 +3616,28 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>-0.1805354214512226</v>
+        <v>-0.2940645651913447</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.1750116323790123</v>
+        <v>-0.264293511775828</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.1806288573955614</v>
+        <v>-0.2616518364666001</v>
       </c>
       <c r="Q46" t="n">
-        <v>-0.1730666934798259</v>
+        <v>-0.2975805318545344</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.1736718323874553</v>
+        <v>-0.2773306975147294</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.1765828874186156</v>
+        <v>-0.2789842285606073</v>
       </c>
       <c r="T46" t="n">
-        <v>0.003325630825643968</v>
+        <v>0.01477973064278756</v>
       </c>
       <c r="U46" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
@@ -3645,16 +3645,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5444884777069092</v>
+        <v>0.6338077068328858</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02088309158697836</v>
+        <v>0.01297408375089252</v>
       </c>
       <c r="D47" t="n">
-        <v>0.008461141586303711</v>
+        <v>0.00939474105834961</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003210405960472606</v>
+        <v>0.0004898042090126899</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -3685,28 +3685,28 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>-0.1814126283052941</v>
+        <v>-0.294521146891297</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.1753752291490556</v>
+        <v>-0.2632058487513683</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.1794517137654198</v>
+        <v>-0.2613880339986013</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.1724873730940188</v>
+        <v>-0.2955326108811479</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.1731061095881661</v>
+        <v>-0.275537170685538</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.1763666107803909</v>
+        <v>-0.2780369622415905</v>
       </c>
       <c r="T47" t="n">
-        <v>0.00351119193097391</v>
+        <v>0.01470526274303341</v>
       </c>
       <c r="U47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -3714,16 +3714,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2001052856445313</v>
+        <v>0.2344552516937256</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01086468225771619</v>
+        <v>0.008883902378530265</v>
       </c>
       <c r="D48" t="n">
-        <v>0.005655336380004883</v>
+        <v>0.005596590042114258</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004680879596823864</v>
+        <v>0.0004896483663515566</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -3754,28 +3754,28 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>-0.1906287765529726</v>
+        <v>-0.3062781550679262</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.1907185329366337</v>
+        <v>-0.2783085697601284</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.1966340016189154</v>
+        <v>-0.2641383176817751</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.1878614734099184</v>
+        <v>-0.3055706253826375</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.1860174450618694</v>
+        <v>-0.2841199914635509</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.1903720459160619</v>
+        <v>-0.2876831318712035</v>
       </c>
       <c r="T48" t="n">
-        <v>0.003596208448012742</v>
+        <v>0.01625222428692152</v>
       </c>
       <c r="U48" t="n">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49">
@@ -3783,16 +3783,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.387662410736084</v>
+        <v>0.4685088634490967</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01211454110248456</v>
+        <v>0.01082607670741484</v>
       </c>
       <c r="D49" t="n">
-        <v>0.009263038635253906</v>
+        <v>0.009195089340209961</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001008435397580346</v>
+        <v>0.0003997090145113607</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -3823,28 +3823,28 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>-0.1905221132692327</v>
+        <v>-0.3059263634354668</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.1906291608878531</v>
+        <v>-0.2784115199326618</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.1952846518749733</v>
+        <v>-0.2637558005758238</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.1871033971670932</v>
+        <v>-0.3051178712648165</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.1859584041958457</v>
+        <v>-0.2836549063870567</v>
       </c>
       <c r="S49" t="n">
-        <v>-0.1898995454789996</v>
+        <v>-0.2873732923191651</v>
       </c>
       <c r="T49" t="n">
-        <v>0.003264056990623357</v>
+        <v>0.01619266626778549</v>
       </c>
       <c r="U49" t="n">
-        <v>73</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50">
@@ -3852,16 +3852,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2234302997589111</v>
+        <v>0.2536427021026612</v>
       </c>
       <c r="C50" t="n">
-        <v>0.007030957062227348</v>
+        <v>0.008054781351752215</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004434823989868164</v>
+        <v>0.00599675178527832</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00465949981897698</v>
+        <v>0.0006324098071836104</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -3892,28 +3892,28 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>-0.1865754641701488</v>
+        <v>-0.2966993358791123</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.1820843732416215</v>
+        <v>-0.2670720594596117</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.1845700458894554</v>
+        <v>-0.2594631501965821</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.1738497596605161</v>
+        <v>-0.3023885740542779</v>
       </c>
       <c r="R50" t="n">
-        <v>-0.1768219762000261</v>
+        <v>-0.2774324408642089</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.1807803238323536</v>
+        <v>-0.2806111120907586</v>
       </c>
       <c r="T50" t="n">
-        <v>0.00476124826878301</v>
+        <v>0.01657549385948836</v>
       </c>
       <c r="U50" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
@@ -3921,16 +3921,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4417194366455078</v>
+        <v>0.476704454421997</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01884290307475754</v>
+        <v>0.003160344553742572</v>
       </c>
       <c r="D51" t="n">
-        <v>0.009691095352172852</v>
+        <v>0.009195041656494141</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0008197504174584216</v>
+        <v>0.0003997330021119474</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -3961,28 +3961,28 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>-0.1865231205618589</v>
+        <v>-0.2964891982882053</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.1826290978607526</v>
+        <v>-0.2675268591537702</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.1840157815558214</v>
+        <v>-0.2578908544690061</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.1737506694478113</v>
+        <v>-0.3005061774754451</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.1775063675428223</v>
+        <v>-0.2775949906877028</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.1808850073938132</v>
+        <v>-0.2800016160148259</v>
       </c>
       <c r="T51" t="n">
-        <v>0.004624843860640562</v>
+        <v>0.01638642480993018</v>
       </c>
       <c r="U51" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
@@ -3990,16 +3990,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2095582962036133</v>
+        <v>0.2434488773345947</v>
       </c>
       <c r="C52" t="n">
-        <v>0.002711111078179783</v>
+        <v>0.006825023037057245</v>
       </c>
       <c r="D52" t="n">
-        <v>0.004874086380004883</v>
+        <v>0.006197166442871094</v>
       </c>
       <c r="E52" t="n">
-        <v>0.003503496751263956</v>
+        <v>0.0007481501222128664</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -4030,28 +4030,28 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>-0.1866785784119064</v>
+        <v>-0.2972038065821812</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.1834028984968638</v>
+        <v>-0.2687371277553964</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.18512042261397</v>
+        <v>-0.2596145263665591</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.1750327222992088</v>
+        <v>-0.3020531408179927</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.1766577872672709</v>
+        <v>-0.278464756218758</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.181378481817844</v>
+        <v>-0.2812146715481775</v>
       </c>
       <c r="T52" t="n">
-        <v>0.004663582927890448</v>
+        <v>0.01624630201572884</v>
       </c>
       <c r="U52" t="n">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
@@ -4059,16 +4059,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4126216888427734</v>
+        <v>0.4695096015930176</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0032968073671663</v>
+        <v>0.007979801814231247</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00807814598083496</v>
+        <v>0.009594440460205078</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00312400837630134</v>
+        <v>0.0007992984340050296</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -4099,28 +4099,28 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>-0.186972994224519</v>
+        <v>-0.2976647870354594</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.1838650718738165</v>
+        <v>-0.2686719884945851</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.1850590925997808</v>
+        <v>-0.2581430882134151</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.1744219966136979</v>
+        <v>-0.3006760715583341</v>
       </c>
       <c r="R53" t="n">
-        <v>-0.1776439446209502</v>
+        <v>-0.2783121795997451</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.1815926199865529</v>
+        <v>-0.2806936229803078</v>
       </c>
       <c r="T53" t="n">
-        <v>0.004756863958471141</v>
+        <v>0.01640753636056502</v>
       </c>
       <c r="U53" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
@@ -4128,16 +4128,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1663266658782959</v>
+        <v>0.2054719924926758</v>
       </c>
       <c r="C54" t="n">
-        <v>0.004000422039618321</v>
+        <v>0.005311083838110233</v>
       </c>
       <c r="D54" t="n">
-        <v>0.007690000534057617</v>
+        <v>0.005597066879272461</v>
       </c>
       <c r="E54" t="n">
-        <v>0.002952106835045324</v>
+        <v>0.0004895511194711666</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -4168,28 +4168,28 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>-0.1941927461950915</v>
+        <v>-0.3075498406314922</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.1929705002872169</v>
+        <v>-0.2798328095454724</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.1976029458614464</v>
+        <v>-0.2621419429334084</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.1878835959188995</v>
+        <v>-0.3069280867732748</v>
       </c>
       <c r="R54" t="n">
-        <v>-0.1884476398455743</v>
+        <v>-0.2849857466451286</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.1922194856216457</v>
+        <v>-0.2882876853057553</v>
       </c>
       <c r="T54" t="n">
-        <v>0.003645989153713488</v>
+        <v>0.01723068635838175</v>
       </c>
       <c r="U54" t="n">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55">
@@ -4197,16 +4197,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3439098834991455</v>
+        <v>0.4115482330322265</v>
       </c>
       <c r="C55" t="n">
-        <v>0.008694992618260698</v>
+        <v>0.02342732045566996</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00809617042541504</v>
+        <v>0.009192323684692383</v>
       </c>
       <c r="E55" t="n">
-        <v>0.003124220865362529</v>
+        <v>0.0003952503923426887</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -4237,28 +4237,28 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>-0.1936282548320819</v>
+        <v>-0.3083852072528046</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.1926590153880722</v>
+        <v>-0.2804480795542205</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.1960676078518164</v>
+        <v>-0.2626183165883462</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.1881543371690265</v>
+        <v>-0.3075389086775546</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.1889809315882593</v>
+        <v>-0.2843537082376315</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.1918980293658513</v>
+        <v>-0.2886688440621115</v>
       </c>
       <c r="T55" t="n">
-        <v>0.00294899492536797</v>
+        <v>0.01737610810278081</v>
       </c>
       <c r="U55" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56">
@@ -4266,16 +4266,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4787534236907959</v>
+        <v>0.5440633296966553</v>
       </c>
       <c r="C56" t="n">
-        <v>0.005276699324237541</v>
+        <v>0.01220094333492664</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01008696556091309</v>
+        <v>0.006196451187133789</v>
       </c>
       <c r="E56" t="n">
-        <v>9.189977040593416e-06</v>
+        <v>0.0003999710367245498</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>-0.178132221119439</v>
+        <v>-0.2918440601114506</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.175639236288057</v>
+        <v>-0.2584116745658339</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.1872510556167058</v>
+        <v>-0.2627863914241239</v>
       </c>
       <c r="Q56" t="n">
-        <v>-0.1667049080426777</v>
+        <v>-0.3003862252260961</v>
       </c>
       <c r="R56" t="n">
-        <v>-0.1702035558959857</v>
+        <v>-0.2795559439581356</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.175586195392573</v>
+        <v>-0.2785968590571281</v>
       </c>
       <c r="T56" t="n">
-        <v>0.007076780303621765</v>
+        <v>0.01617774531501969</v>
       </c>
       <c r="U56" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -4335,16 +4335,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9611572742462158</v>
+        <v>1.070138311386108</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0087351991440412</v>
+        <v>0.01320385397467387</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0101048469543457</v>
+        <v>0.01019387245178223</v>
       </c>
       <c r="E57" t="n">
-        <v>1.621695063705443e-05</v>
+        <v>0.0003998042965725403</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -4375,28 +4375,28 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>-0.1759835035029274</v>
+        <v>-0.2936504805287453</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.1746065985707526</v>
+        <v>-0.2565292030262973</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.1876018400745378</v>
+        <v>-0.2632391772605447</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.1678803664328963</v>
+        <v>-0.2934579578920948</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.169246585657784</v>
+        <v>-0.2754635049491598</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.1750637788477796</v>
+        <v>-0.2764680647313684</v>
       </c>
       <c r="T57" t="n">
-        <v>0.006981390077985279</v>
+        <v>0.01521487885204836</v>
       </c>
       <c r="U57" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -4404,16 +4404,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2936392307281494</v>
+        <v>0.3545807838439942</v>
       </c>
       <c r="C58" t="n">
-        <v>0.008482387611765419</v>
+        <v>0.008418316456240199</v>
       </c>
       <c r="D58" t="n">
-        <v>0.005645465850830078</v>
+        <v>0.005796575546264648</v>
       </c>
       <c r="E58" t="n">
-        <v>0.004673187445432277</v>
+        <v>0.0007477294804975785</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -4444,28 +4444,28 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>-0.1826082977751654</v>
+        <v>-0.2959996474571804</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.1753287309696701</v>
+        <v>-0.2637367676552784</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.1819877100723861</v>
+        <v>-0.2584425260447903</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.1741679867869429</v>
+        <v>-0.2982562656781818</v>
       </c>
       <c r="R58" t="n">
-        <v>-0.1747254295565541</v>
+        <v>-0.277617062770908</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.1777636310321437</v>
+        <v>-0.2788104539212678</v>
       </c>
       <c r="T58" t="n">
-        <v>0.003725632930059273</v>
+        <v>0.01623022276720204</v>
       </c>
       <c r="U58" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
@@ -4473,16 +4473,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5805702209472656</v>
+        <v>0.7129592895507812</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01371484568057984</v>
+        <v>0.009346419383759129</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01010270118713379</v>
+        <v>0.009393978118896484</v>
       </c>
       <c r="E59" t="n">
-        <v>2.336472880901196e-05</v>
+        <v>0.0004886753756621107</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -4513,28 +4513,28 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>-0.1824499592243052</v>
+        <v>-0.2965453938361703</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.175656999174672</v>
+        <v>-0.2624407812847839</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.1808414412366676</v>
+        <v>-0.2578581316948635</v>
       </c>
       <c r="Q59" t="n">
-        <v>-0.1735259074162585</v>
+        <v>-0.2947572384543804</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.1735354398545983</v>
+        <v>-0.2767385501649611</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.1772019493813003</v>
+        <v>-0.2776680190870319</v>
       </c>
       <c r="T59" t="n">
-        <v>0.003745155699211102</v>
+        <v>0.01595970562421792</v>
       </c>
       <c r="U59" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -4542,16 +4542,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1946342468261719</v>
+        <v>0.2588395118713379</v>
       </c>
       <c r="C60" t="n">
-        <v>0.006958639600240584</v>
+        <v>0.01246579047458895</v>
       </c>
       <c r="D60" t="n">
-        <v>0.007680559158325195</v>
+        <v>0.005996084213256836</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003922906644561676</v>
+        <v>0.0006319576952708567</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>-0.1906720644736157</v>
+        <v>-0.3070566616377651</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.1911555198384034</v>
+        <v>-0.2785949543413347</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.1964865752242738</v>
+        <v>-0.2622363154476012</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.1882967220931527</v>
+        <v>-0.3047389211544996</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.1855922069573528</v>
+        <v>-0.283007446987743</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.1904406177173597</v>
+        <v>-0.2871268599137887</v>
       </c>
       <c r="T60" t="n">
-        <v>0.003611692959383754</v>
+        <v>0.01683261047656818</v>
       </c>
       <c r="U60" t="n">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -4611,16 +4611,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3884097576141358</v>
+        <v>0.5072857856750488</v>
       </c>
       <c r="C61" t="n">
-        <v>0.007136570858274627</v>
+        <v>0.01362398033350607</v>
       </c>
       <c r="D61" t="n">
-        <v>0.006482267379760742</v>
+        <v>0.009394693374633788</v>
       </c>
       <c r="E61" t="n">
-        <v>0.003681979922614926</v>
+        <v>0.0004895511194711666</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -4651,28 +4651,28 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>-0.1905943702908486</v>
+        <v>-0.3069185036338346</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.1909034206052432</v>
+        <v>-0.2794874353716627</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.1951308521882038</v>
+        <v>-0.2620876416857096</v>
       </c>
       <c r="Q61" t="n">
-        <v>-0.1874749585200347</v>
+        <v>-0.3042261628090587</v>
       </c>
       <c r="R61" t="n">
-        <v>-0.1858130515178435</v>
+        <v>-0.2830728210842661</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.1899833306244348</v>
+        <v>-0.2871585129169064</v>
       </c>
       <c r="T61" t="n">
-        <v>0.003206246145796871</v>
+        <v>0.0166484161332054</v>
       </c>
       <c r="U61" t="n">
-        <v>83</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62">
@@ -4680,16 +4680,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3518517017364502</v>
+        <v>0.3965542316436768</v>
       </c>
       <c r="C62" t="n">
-        <v>0.003959075541492068</v>
+        <v>0.007725660090864246</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00322413444519043</v>
+        <v>0.006196498870849609</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003948747084889883</v>
+        <v>0.0007478824107306269</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -4720,28 +4720,28 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>-0.1784140632868857</v>
+        <v>-0.287489351391264</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.1713958266213427</v>
+        <v>-0.256290421346642</v>
       </c>
       <c r="P62" t="n">
-        <v>-0.179173086981504</v>
+        <v>-0.2642930781787965</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.1669547431384851</v>
+        <v>-0.2938763447015894</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.1728558695062865</v>
+        <v>-0.2740505215053378</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.1737587179069008</v>
+        <v>-0.2751999434247259</v>
       </c>
       <c r="T62" t="n">
-        <v>0.004553681943088723</v>
+        <v>0.01398347895400578</v>
       </c>
       <c r="U62" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -4749,16 +4749,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.691346549987793</v>
+        <v>0.782715892791748</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00670352887520915</v>
+        <v>0.01350350753876441</v>
       </c>
       <c r="D63" t="n">
-        <v>0.006483888626098633</v>
+        <v>0.009994077682495116</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003683131320576756</v>
+        <v>0.0006319574038388179</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -4789,28 +4789,28 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>-0.1768999577869641</v>
+        <v>-0.2905744671243765</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.1704838844730852</v>
+        <v>-0.2568192373976625</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.1792237303947142</v>
+        <v>-0.2627883285790138</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.1669147392608037</v>
+        <v>-0.2907687454109392</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.1718885268624679</v>
+        <v>-0.2729977712147946</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.173082167755607</v>
+        <v>-0.2747897099453573</v>
       </c>
       <c r="T63" t="n">
-        <v>0.004438633600785832</v>
+        <v>0.01396187821400032</v>
       </c>
       <c r="U63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -4818,16 +4818,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2612827777862549</v>
+        <v>0.3261979579925537</v>
       </c>
       <c r="C64" t="n">
-        <v>0.007057363109461601</v>
+        <v>0.006677524466905032</v>
       </c>
       <c r="D64" t="n">
-        <v>0.005244064331054688</v>
+        <v>0.0067962646484375</v>
       </c>
       <c r="E64" t="n">
-        <v>0.004347710320333746</v>
+        <v>0.0003996618428513132</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -4858,28 +4858,28 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>-0.1804778202643874</v>
+        <v>-0.2945487716498267</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.174996584807938</v>
+        <v>-0.2641926998471641</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.180505293339009</v>
+        <v>-0.2614064926563821</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.1730808703694137</v>
+        <v>-0.2973681274045941</v>
       </c>
       <c r="R64" t="n">
-        <v>-0.1737209000703376</v>
+        <v>-0.2774804224551328</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.1765562937702171</v>
+        <v>-0.2789993028026199</v>
       </c>
       <c r="T64" t="n">
-        <v>0.003271809436198245</v>
+        <v>0.01490133655831188</v>
       </c>
       <c r="U64" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
@@ -4887,16 +4887,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5230819702148437</v>
+        <v>0.6448009967803955</v>
       </c>
       <c r="C65" t="n">
-        <v>0.007977784497215297</v>
+        <v>0.01799349972091448</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008506298065185547</v>
+        <v>0.00939488410949707</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003224505563790454</v>
+        <v>0.0004896896834629355</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -4927,28 +4927,28 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>-0.1813727311737416</v>
+        <v>-0.2946683531108328</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.1753469675512721</v>
+        <v>-0.2631147255966882</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.1793872730741012</v>
+        <v>-0.2613758409618974</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.1725059622482277</v>
+        <v>-0.2956588537597078</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.1731363307136819</v>
+        <v>-0.2754886445076524</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.1763498529522049</v>
+        <v>-0.2780612835873557</v>
       </c>
       <c r="T65" t="n">
-        <v>0.003480322590631428</v>
+        <v>0.01479115477127272</v>
       </c>
       <c r="U65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
@@ -4956,16 +4956,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1925528526306152</v>
+        <v>0.2294585227966309</v>
       </c>
       <c r="C66" t="n">
-        <v>0.005765406217117106</v>
+        <v>0.006049026565374773</v>
       </c>
       <c r="D66" t="n">
-        <v>0.004043960571289062</v>
+        <v>0.005596590042114258</v>
       </c>
       <c r="E66" t="n">
-        <v>0.004227367261638863</v>
+        <v>0.0004898432199529919</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -4996,28 +4996,28 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>-0.1906287765529726</v>
+        <v>-0.3062781550679262</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.1907185329366337</v>
+        <v>-0.2783085697601284</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.1966340016189154</v>
+        <v>-0.2640805287370515</v>
       </c>
       <c r="Q66" t="n">
-        <v>-0.1878614734099184</v>
+        <v>-0.3055706253826375</v>
       </c>
       <c r="R66" t="n">
-        <v>-0.1860174450618694</v>
+        <v>-0.2841199914635509</v>
       </c>
       <c r="S66" t="n">
-        <v>-0.1903720459160619</v>
+        <v>-0.2876715740822589</v>
       </c>
       <c r="T66" t="n">
-        <v>0.003596208448012742</v>
+        <v>0.01626897601536838</v>
       </c>
       <c r="U66" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
@@ -5025,16 +5025,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3797067165374756</v>
+        <v>0.4639230728149414</v>
       </c>
       <c r="C67" t="n">
-        <v>0.004910244600415547</v>
+        <v>0.01055556758418076</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006489181518554687</v>
+        <v>0.008994817733764648</v>
       </c>
       <c r="E67" t="n">
-        <v>0.003701106533593156</v>
+        <v>4.264961199760036e-07</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -5065,28 +5065,28 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>-0.1905221132692327</v>
+        <v>-0.3059263634354668</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.1906291608878531</v>
+        <v>-0.2784115199326618</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.1952846518749733</v>
+        <v>-0.2637797967969104</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.1871033971670932</v>
+        <v>-0.3051178712648165</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.1859584041958457</v>
+        <v>-0.2836549063870567</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.1898995454789996</v>
+        <v>-0.2873780915633825</v>
       </c>
       <c r="T67" t="n">
-        <v>0.003264056990623357</v>
+        <v>0.01618566775791179</v>
       </c>
       <c r="U67" t="n">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -5094,16 +5094,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2104416847229004</v>
+        <v>0.2454473495483399</v>
       </c>
       <c r="C68" t="n">
-        <v>0.004031777539733579</v>
+        <v>0.004027464170695401</v>
       </c>
       <c r="D68" t="n">
-        <v>0.004042339324951172</v>
+        <v>0.005596446990966797</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004226596806941384</v>
+        <v>0.0004895315191458719</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -5134,28 +5134,28 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>-0.1865894013300955</v>
+        <v>-0.2966897546490599</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.1820843732416215</v>
+        <v>-0.2670591276677854</v>
       </c>
       <c r="P68" t="n">
-        <v>-0.1845463214982687</v>
+        <v>-0.2593813124363524</v>
       </c>
       <c r="Q68" t="n">
-        <v>-0.1738356417417043</v>
+        <v>-0.3023885740542779</v>
       </c>
       <c r="R68" t="n">
-        <v>-0.1768219762000261</v>
+        <v>-0.2773657989601582</v>
       </c>
       <c r="S68" t="n">
-        <v>-0.1807755428023432</v>
+        <v>-0.2805769135535267</v>
       </c>
       <c r="T68" t="n">
-        <v>0.004764990570474583</v>
+        <v>0.01659920167280815</v>
       </c>
       <c r="U68" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
@@ -5163,16 +5163,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4207993507385254</v>
+        <v>0.506087064743042</v>
       </c>
       <c r="C69" t="n">
-        <v>0.004264648288336541</v>
+        <v>0.02356940084824791</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01012735366821289</v>
+        <v>0.009594535827636719</v>
       </c>
       <c r="E69" t="n">
-        <v>1.572362846980441e-05</v>
+        <v>0.0004892789019697193</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -5203,28 +5203,28 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>-0.1865300891418322</v>
+        <v>-0.2964830531482366</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.1826428430573237</v>
+        <v>-0.2675239421250249</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.184003919360228</v>
+        <v>-0.2578499355888912</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.1737675622084152</v>
+        <v>-0.3005061774754451</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.1775063675428223</v>
+        <v>-0.2775616697356775</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.1808901562621243</v>
+        <v>-0.2799849556146551</v>
       </c>
       <c r="T69" t="n">
-        <v>0.004620771508559925</v>
+        <v>0.01639765868694857</v>
       </c>
       <c r="U69" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
@@ -5232,16 +5232,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2064188957214355</v>
+        <v>0.2436493396759033</v>
       </c>
       <c r="C70" t="n">
-        <v>0.004952331400473398</v>
+        <v>0.01167870174781141</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00405116081237793</v>
+        <v>0.005996322631835938</v>
       </c>
       <c r="E70" t="n">
-        <v>0.004961642566831073</v>
+        <v>3.873843385999661e-07</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -5272,28 +5272,28 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>-0.1866993100501912</v>
+        <v>-0.2971988578435115</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.1834028984968638</v>
+        <v>-0.2687371277553964</v>
       </c>
       <c r="P70" t="n">
-        <v>-0.18512042261397</v>
+        <v>-0.2596270132844554</v>
       </c>
       <c r="Q70" t="n">
-        <v>-0.1750256744815039</v>
+        <v>-0.3020531408179927</v>
       </c>
       <c r="R70" t="n">
-        <v>-0.1766716212969382</v>
+        <v>-0.2783856215101272</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.1813839853878934</v>
+        <v>-0.2812003522422967</v>
       </c>
       <c r="T70" t="n">
-        <v>0.00466742203919144</v>
+        <v>0.01624471975966458</v>
       </c>
       <c r="U70" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71">
@@ -5301,16 +5301,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4144207000732422</v>
+        <v>0.485499382019043</v>
       </c>
       <c r="C71" t="n">
-        <v>0.008780916827328443</v>
+        <v>0.01312827634011176</v>
       </c>
       <c r="D71" t="n">
-        <v>0.008098983764648437</v>
+        <v>0.009394407272338867</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003114788031700789</v>
+        <v>0.0004894930268392974</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
@@ -5341,28 +5341,28 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>-0.1869833600436614</v>
+        <v>-0.2976623126661246</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.1838650718738165</v>
+        <v>-0.2686672653410671</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.1850590925997808</v>
+        <v>-0.2581493316723633</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.1744318415565969</v>
+        <v>-0.3006760715583341</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.1776596453036026</v>
+        <v>-0.2782726122454296</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.1815998022754916</v>
+        <v>-0.2806855186966637</v>
       </c>
       <c r="T71" t="n">
-        <v>0.004753637091212993</v>
+        <v>0.01640715693868212</v>
       </c>
       <c r="U71" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72">
@@ -5370,16 +5370,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1758473873138428</v>
+        <v>0.2024746417999267</v>
       </c>
       <c r="C72" t="n">
-        <v>0.004315371414835172</v>
+        <v>0.00492072833150461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.004771947860717773</v>
+        <v>0.005796384811401367</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001620793987727781</v>
+        <v>0.0003999233956528511</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>-0.1941927461950915</v>
+        <v>-0.3075498406314922</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.1929705002872169</v>
+        <v>-0.2798328095454724</v>
       </c>
       <c r="P72" t="n">
-        <v>-0.1976029458614464</v>
+        <v>-0.2621419429334084</v>
       </c>
       <c r="Q72" t="n">
-        <v>-0.1878835959188995</v>
+        <v>-0.3069280867732748</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.1884476398455743</v>
+        <v>-0.2849857466451286</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.1922194856216457</v>
+        <v>-0.2882876853057553</v>
       </c>
       <c r="T72" t="n">
-        <v>0.003645989153713488</v>
+        <v>0.01723068635838175</v>
       </c>
       <c r="U72" t="n">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73">
@@ -5439,16 +5439,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.346136999130249</v>
+        <v>0.3943622589111328</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01464533965362141</v>
+        <v>0.008584148070779059</v>
       </c>
       <c r="D73" t="n">
-        <v>0.007997465133666993</v>
+        <v>0.009194660186767577</v>
       </c>
       <c r="E73" t="n">
-        <v>6.289914111267528e-07</v>
+        <v>0.0003995658211964233</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
@@ -5479,28 +5479,28 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>-0.1936282548320819</v>
+        <v>-0.3083852072528046</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.1926590153880722</v>
+        <v>-0.2804480795542205</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.1960676078518164</v>
+        <v>-0.2626183165883462</v>
       </c>
       <c r="Q73" t="n">
-        <v>-0.1881543371690265</v>
+        <v>-0.3075389086775546</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.1889809315882593</v>
+        <v>-0.2843537082376315</v>
       </c>
       <c r="S73" t="n">
-        <v>-0.1918980293658513</v>
+        <v>-0.2886688440621115</v>
       </c>
       <c r="T73" t="n">
-        <v>0.00294899492536797</v>
+        <v>0.01737610810278081</v>
       </c>
       <c r="U73" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74">
@@ -5508,16 +5508,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5939836978912354</v>
+        <v>0.6703862190246582</v>
       </c>
       <c r="C74" t="n">
-        <v>0.004540473885905715</v>
+        <v>0.009124846326916172</v>
       </c>
       <c r="D74" t="n">
-        <v>0.007238960266113282</v>
+        <v>0.006596088409423828</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001588411213826206</v>
+        <v>0.0004890063283446149</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
@@ -5548,28 +5548,28 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>-0.1799383634391643</v>
+        <v>-0.2929937266886379</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.1749130621061724</v>
+        <v>-0.2609123814099039</v>
       </c>
       <c r="P74" t="n">
-        <v>-0.1876870941070615</v>
+        <v>-0.2643537960723115</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.166127404133347</v>
+        <v>-0.2997538366893397</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.1709433856791558</v>
+        <v>-0.277038373689752</v>
       </c>
       <c r="S74" t="n">
-        <v>-0.1759218618929802</v>
+        <v>-0.2790104229099891</v>
       </c>
       <c r="T74" t="n">
-        <v>0.007433535887428984</v>
+        <v>0.0153105636363401</v>
       </c>
       <c r="U74" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
@@ -5577,16 +5577,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.185763025283813</v>
+        <v>1.33677282333374</v>
       </c>
       <c r="C75" t="n">
-        <v>0.009668156976691414</v>
+        <v>0.01326751914173092</v>
       </c>
       <c r="D75" t="n">
-        <v>0.009615182876586914</v>
+        <v>0.01099381446838379</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001949522540870821</v>
+        <v>5.560829062314321e-07</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -5617,28 +5617,28 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>-0.1769858395306815</v>
+        <v>-0.2938735466277155</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.1748970121164695</v>
+        <v>-0.261261331031951</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.1880002144454404</v>
+        <v>-0.2618351694209567</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.1684232153660556</v>
+        <v>-0.2941272198842261</v>
       </c>
       <c r="R75" t="n">
-        <v>-0.1710111564158439</v>
+        <v>-0.2761162667378431</v>
       </c>
       <c r="S75" t="n">
-        <v>-0.1758634875748982</v>
+        <v>-0.2774427067405384</v>
       </c>
       <c r="T75" t="n">
-        <v>0.006758648623406018</v>
+        <v>0.01452953586543828</v>
       </c>
       <c r="U75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -5646,16 +5646,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2982485771179199</v>
+        <v>0.3811643600463867</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00686675845641578</v>
+        <v>0.01144102890770286</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005246925354003906</v>
+        <v>0.005797100067138672</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001642463479613122</v>
+        <v>0.00040004316974214</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -5686,28 +5686,28 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>-0.1828090045641766</v>
+        <v>-0.2957211138773087</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.1754057484561036</v>
+        <v>-0.2646360089515847</v>
       </c>
       <c r="P76" t="n">
-        <v>-0.1819840395768048</v>
+        <v>-0.2582710665000797</v>
       </c>
       <c r="Q76" t="n">
-        <v>-0.1742880381356374</v>
+        <v>-0.2993274661002516</v>
       </c>
       <c r="R76" t="n">
-        <v>-0.1746500830895861</v>
+        <v>-0.2773437470702182</v>
       </c>
       <c r="S76" t="n">
-        <v>-0.1778273827644617</v>
+        <v>-0.2790598804998886</v>
       </c>
       <c r="T76" t="n">
-        <v>0.003757149397081843</v>
+        <v>0.0163189441792902</v>
       </c>
       <c r="U76" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77">
@@ -5715,16 +5715,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5913589477539063</v>
+        <v>0.7399424076080322</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0173592275940952</v>
+        <v>0.01731683191741544</v>
       </c>
       <c r="D77" t="n">
-        <v>0.008036422729492187</v>
+        <v>0.009593963623046875</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001305227944453972</v>
+        <v>0.0004892993116859507</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -5755,28 +5755,28 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>-0.1825014397398878</v>
+        <v>-0.296325777772777</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.1754890703366542</v>
+        <v>-0.2632498822670527</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.1806751741158898</v>
+        <v>-0.2572946908048944</v>
       </c>
       <c r="Q77" t="n">
-        <v>-0.1733940497670628</v>
+        <v>-0.2954369422529945</v>
       </c>
       <c r="R77" t="n">
-        <v>-0.1735166343288094</v>
+        <v>-0.2763728152662449</v>
       </c>
       <c r="S77" t="n">
-        <v>-0.1771152736576608</v>
+        <v>-0.2777360216727927</v>
       </c>
       <c r="T77" t="n">
-        <v>0.003771628980750822</v>
+        <v>0.01605276421980834</v>
       </c>
       <c r="U77" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -5784,16 +5784,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.19787917137146</v>
+        <v>0.2470463752746582</v>
       </c>
       <c r="C78" t="n">
-        <v>0.00474765839431471</v>
+        <v>0.007751872220819001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.004023933410644531</v>
+        <v>0.005596923828125</v>
       </c>
       <c r="E78" t="n">
-        <v>4.31611650135504e-05</v>
+        <v>0.0004898236545258665</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
@@ -5824,28 +5824,28 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>-0.1906720644736157</v>
+        <v>-0.3068006123417589</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.1911485977536024</v>
+        <v>-0.2785949543413347</v>
       </c>
       <c r="P78" t="n">
-        <v>-0.1964865752242738</v>
+        <v>-0.2621979187463995</v>
       </c>
       <c r="Q78" t="n">
-        <v>-0.1882967220931527</v>
+        <v>-0.3047389211544996</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.1855922069573528</v>
+        <v>-0.283007446987743</v>
       </c>
       <c r="S78" t="n">
-        <v>-0.1904392333003995</v>
+        <v>-0.2870679707143471</v>
       </c>
       <c r="T78" t="n">
-        <v>0.003611419977524208</v>
+        <v>0.01678355730668714</v>
       </c>
       <c r="U78" t="n">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
@@ -5853,16 +5853,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3872158050537109</v>
+        <v>0.4960933208465576</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01110693178333541</v>
+        <v>0.01499269294006318</v>
       </c>
       <c r="D79" t="n">
-        <v>0.007652521133422852</v>
+        <v>0.008994293212890626</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0006999545740663836</v>
+        <v>0.0006322591619101754</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -5893,28 +5893,28 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>-0.1905943702908486</v>
+        <v>-0.3067029176253754</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.1908999595628427</v>
+        <v>-0.2794874353716627</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.1951308521882038</v>
+        <v>-0.2620195492247747</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.1874749585200347</v>
+        <v>-0.3042261628090587</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.1858130515178435</v>
+        <v>-0.2830587674203958</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.1899826384159546</v>
+        <v>-0.2870989664902535</v>
       </c>
       <c r="T79" t="n">
-        <v>0.003206047796879088</v>
+        <v>0.01661861329185135</v>
       </c>
       <c r="U79" t="n">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80">
@@ -5922,16 +5922,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3565631866455078</v>
+        <v>0.4109456539154053</v>
       </c>
       <c r="C80" t="n">
-        <v>0.005341953301412025</v>
+        <v>0.005150238606792612</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0054046630859375</v>
+        <v>0.006596183776855469</v>
       </c>
       <c r="E80" t="n">
-        <v>0.001723234610377733</v>
+        <v>0.0004900574415908383</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
@@ -5962,28 +5962,28 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>-0.1788745320037291</v>
+        <v>-0.286491393012889</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.170724066162762</v>
+        <v>-0.2586832169017216</v>
       </c>
       <c r="P80" t="n">
-        <v>-0.1794331950547268</v>
+        <v>-0.2645038093114359</v>
       </c>
       <c r="Q80" t="n">
-        <v>-0.166915674216272</v>
+        <v>-0.2950448181330266</v>
       </c>
       <c r="R80" t="n">
-        <v>-0.1732939794693788</v>
+        <v>-0.2745289532614073</v>
       </c>
       <c r="S80" t="n">
-        <v>-0.1738482893813738</v>
+        <v>-0.2758504381240961</v>
       </c>
       <c r="T80" t="n">
-        <v>0.004787138383307504</v>
+        <v>0.01346744175428359</v>
       </c>
       <c r="U80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -5991,16 +5991,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7179177284240723</v>
+        <v>0.8206925868988038</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0140926525780381</v>
+        <v>0.008991929742766854</v>
       </c>
       <c r="D81" t="n">
-        <v>0.008590316772460938</v>
+        <v>0.0101935863494873</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001757092051959175</v>
+        <v>0.000399351134229062</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -6031,28 +6031,28 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>-0.177046664386296</v>
+        <v>-0.2903387180633992</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.170110579010609</v>
+        <v>-0.2588001011980677</v>
       </c>
       <c r="P81" t="n">
-        <v>-0.1793210123774237</v>
+        <v>-0.2628165067793639</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.167021793366651</v>
+        <v>-0.2912284294150115</v>
       </c>
       <c r="R81" t="n">
-        <v>-0.1718151078489552</v>
+        <v>-0.2739939249971408</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.173063031397987</v>
+        <v>-0.2754355360905966</v>
       </c>
       <c r="T81" t="n">
-        <v>0.004512261139600798</v>
+        <v>0.01348759541087222</v>
       </c>
       <c r="U81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -6060,16 +6060,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2647580623626709</v>
+        <v>0.31220703125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.005681838328518841</v>
+        <v>0.005347521198802074</v>
       </c>
       <c r="D82" t="n">
-        <v>0.004000043869018555</v>
+        <v>0.005996417999267578</v>
       </c>
       <c r="E82" t="n">
-        <v>3.862369207670375e-05</v>
+        <v>0.000632108174983883</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
@@ -6100,28 +6100,28 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>-0.1805891119614796</v>
+        <v>-0.2940118809808184</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.1750321247041859</v>
+        <v>-0.2643229251905892</v>
       </c>
       <c r="P82" t="n">
-        <v>-0.1806037853983083</v>
+        <v>-0.2614391300775117</v>
       </c>
       <c r="Q82" t="n">
-        <v>-0.1730666934798259</v>
+        <v>-0.2975705920455997</v>
       </c>
       <c r="R82" t="n">
-        <v>-0.1737703377891791</v>
+        <v>-0.2773918542501926</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.1766124106665958</v>
+        <v>-0.2789472765089423</v>
       </c>
       <c r="T82" t="n">
-        <v>0.003313367404009897</v>
+        <v>0.01480943193253554</v>
       </c>
       <c r="U82" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
@@ -6129,16 +6129,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5215182304382324</v>
+        <v>0.6298098564147949</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0128107268102124</v>
+        <v>0.01867972432870826</v>
       </c>
       <c r="D83" t="n">
-        <v>0.009241294860839844</v>
+        <v>0.00979475975036621</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001638273876087651</v>
+        <v>0.000399017647392996</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
@@ -6169,28 +6169,28 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>-0.1814658402270893</v>
+        <v>-0.2945047938211215</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.1753986184080769</v>
+        <v>-0.2633641688176628</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.1794391777667932</v>
+        <v>-0.2613393740321021</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.1724895390461111</v>
+        <v>-0.2955678499580955</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.1731674373882571</v>
+        <v>-0.2755326781537217</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.1763921225672655</v>
+        <v>-0.2780617729565408</v>
       </c>
       <c r="T83" t="n">
-        <v>0.003511209462228184</v>
+        <v>0.01468938515302991</v>
       </c>
       <c r="U83" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -6198,16 +6198,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1879441738128662</v>
+        <v>0.2324556827545166</v>
       </c>
       <c r="C84" t="n">
-        <v>0.004380548761899979</v>
+        <v>0.005948432121303491</v>
       </c>
       <c r="D84" t="n">
-        <v>0.006398057937622071</v>
+        <v>0.00599675178527832</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001959118832348944</v>
+        <v>5.7220458984375e-07</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
@@ -6238,28 +6238,28 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>-0.1906287765529726</v>
+        <v>-0.3062781550679262</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.1907185329366337</v>
+        <v>-0.2783085697601284</v>
       </c>
       <c r="P84" t="n">
-        <v>-0.1966340016189154</v>
+        <v>-0.2640805287370515</v>
       </c>
       <c r="Q84" t="n">
-        <v>-0.1878614734099184</v>
+        <v>-0.3055706253826375</v>
       </c>
       <c r="R84" t="n">
-        <v>-0.1860174450618694</v>
+        <v>-0.2841199914635509</v>
       </c>
       <c r="S84" t="n">
-        <v>-0.1903720459160619</v>
+        <v>-0.2876715740822589</v>
       </c>
       <c r="T84" t="n">
-        <v>0.003596208448012742</v>
+        <v>0.01626897601536838</v>
       </c>
       <c r="U84" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
@@ -6267,16 +6267,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.382390546798706</v>
+        <v>0.4629137992858887</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01983835438914792</v>
+        <v>0.01505553994886103</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01048822402954102</v>
+        <v>0.008794736862182618</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000754613889660732</v>
+        <v>0.000399804125958773</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
@@ -6307,28 +6307,28 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>-0.1905221132692327</v>
+        <v>-0.3059263634354668</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.1906291608878531</v>
+        <v>-0.2784115199326618</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.1952846518749733</v>
+        <v>-0.2637846950481856</v>
       </c>
       <c r="Q85" t="n">
-        <v>-0.1871033971670932</v>
+        <v>-0.3051178712648165</v>
       </c>
       <c r="R85" t="n">
-        <v>-0.1859584041958457</v>
+        <v>-0.2836549063870567</v>
       </c>
       <c r="S85" t="n">
-        <v>-0.1898995454789996</v>
+        <v>-0.2873790712136375</v>
       </c>
       <c r="T85" t="n">
-        <v>0.003264056990623357</v>
+        <v>0.01618423950815702</v>
       </c>
       <c r="U85" t="n">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
@@ -6336,16 +6336,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2118302822113037</v>
+        <v>0.2420504570007324</v>
       </c>
       <c r="C86" t="n">
-        <v>0.001735731281518638</v>
+        <v>0.001937544509230954</v>
       </c>
       <c r="D86" t="n">
-        <v>0.00444483757019043</v>
+        <v>0.006195974349975586</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003893049557022214</v>
+        <v>0.0003996134479989898</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
@@ -6376,28 +6376,28 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>-0.1865894013300955</v>
+        <v>-0.2966897546490599</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.1820843732416215</v>
+        <v>-0.2670591276677854</v>
       </c>
       <c r="P86" t="n">
-        <v>-0.1845463214982687</v>
+        <v>-0.2593813124363524</v>
       </c>
       <c r="Q86" t="n">
-        <v>-0.1738356417417043</v>
+        <v>-0.3023885740542779</v>
       </c>
       <c r="R86" t="n">
-        <v>-0.1768219762000261</v>
+        <v>-0.2773657989601582</v>
       </c>
       <c r="S86" t="n">
-        <v>-0.1807755428023432</v>
+        <v>-0.2805769135535267</v>
       </c>
       <c r="T86" t="n">
-        <v>0.004764990570474583</v>
+        <v>0.01659920167280815</v>
       </c>
       <c r="U86" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
@@ -6405,16 +6405,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4197073459625244</v>
+        <v>0.5062864780426025</v>
       </c>
       <c r="C87" t="n">
-        <v>0.004984063446711837</v>
+        <v>0.01639101988891985</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01008877754211426</v>
+        <v>0.009394407272338867</v>
       </c>
       <c r="E87" t="n">
-        <v>6.074014535496177e-06</v>
+        <v>0.0004895905174666359</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
@@ -6445,28 +6445,28 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>-0.1865300891418322</v>
+        <v>-0.2964830531482366</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.1826428430573237</v>
+        <v>-0.2675239421250249</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.184003919360228</v>
+        <v>-0.2578499355888912</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.1737675622084152</v>
+        <v>-0.3005061774754451</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.1775063675428223</v>
+        <v>-0.2775616697356775</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.1808901562621243</v>
+        <v>-0.2799849556146551</v>
       </c>
       <c r="T87" t="n">
-        <v>0.004620771508559925</v>
+        <v>0.01639765868694857</v>
       </c>
       <c r="U87" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88">
@@ -6474,16 +6474,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2074944496154785</v>
+        <v>0.2518441677093506</v>
       </c>
       <c r="C88" t="n">
-        <v>0.004660825237832365</v>
+        <v>0.02005736119156986</v>
       </c>
       <c r="D88" t="n">
-        <v>0.004442167282104492</v>
+        <v>0.00619668960571289</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004655869874333399</v>
+        <v>0.000747958859561528</v>
       </c>
       <c r="F88" t="b">
         <v>1</v>
@@ -6514,28 +6514,28 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>-0.1866993100501912</v>
+        <v>-0.2971988578435115</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.1834028984968638</v>
+        <v>-0.2687371277553964</v>
       </c>
       <c r="P88" t="n">
-        <v>-0.18512042261397</v>
+        <v>-0.2596270132844554</v>
       </c>
       <c r="Q88" t="n">
-        <v>-0.1750256744815039</v>
+        <v>-0.3020531408179927</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.1766716212969382</v>
+        <v>-0.2783856215101272</v>
       </c>
       <c r="S88" t="n">
-        <v>-0.1813839853878934</v>
+        <v>-0.2812003522422967</v>
       </c>
       <c r="T88" t="n">
-        <v>0.00466742203919144</v>
+        <v>0.01624471975966458</v>
       </c>
       <c r="U88" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
@@ -6543,16 +6543,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4053445816040039</v>
+        <v>0.4998888969421387</v>
       </c>
       <c r="C89" t="n">
-        <v>0.004531053415960177</v>
+        <v>0.01744155396191661</v>
       </c>
       <c r="D89" t="n">
-        <v>0.008466386795043945</v>
+        <v>0.009594345092773437</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003213757598132952</v>
+        <v>0.000799131798882094</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
@@ -6583,28 +6583,28 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>-0.1869833600436614</v>
+        <v>-0.2976623126661246</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.1838650718738165</v>
+        <v>-0.2686672653410671</v>
       </c>
       <c r="P89" t="n">
-        <v>-0.1850590925997808</v>
+        <v>-0.2581493316723633</v>
       </c>
       <c r="Q89" t="n">
-        <v>-0.1744318415565969</v>
+        <v>-0.3006760715583341</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.1776596453036026</v>
+        <v>-0.2782726122454296</v>
       </c>
       <c r="S89" t="n">
-        <v>-0.1815998022754916</v>
+        <v>-0.2806855186966637</v>
       </c>
       <c r="T89" t="n">
-        <v>0.004753637091212993</v>
+        <v>0.01640715693868212</v>
       </c>
       <c r="U89" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90">
@@ -6612,16 +6612,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1676847457885742</v>
+        <v>0.1988766193389893</v>
       </c>
       <c r="C90" t="n">
-        <v>0.004605753734495134</v>
+        <v>0.004644472997352539</v>
       </c>
       <c r="D90" t="n">
-        <v>0.006065511703491211</v>
+        <v>0.005796670913696289</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004227798303129538</v>
+        <v>0.0003998279713702896</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
@@ -6652,28 +6652,28 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>-0.1941927461950915</v>
+        <v>-0.3075498406314922</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.1929705002872169</v>
+        <v>-0.2798328095454724</v>
       </c>
       <c r="P90" t="n">
-        <v>-0.1976029458614464</v>
+        <v>-0.2621419429334084</v>
       </c>
       <c r="Q90" t="n">
-        <v>-0.1878835959188995</v>
+        <v>-0.3069280867732748</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.1884476398455743</v>
+        <v>-0.2849857466451286</v>
       </c>
       <c r="S90" t="n">
-        <v>-0.1922194856216457</v>
+        <v>-0.2882876853057553</v>
       </c>
       <c r="T90" t="n">
-        <v>0.003645989153713488</v>
+        <v>0.01723068635838175</v>
       </c>
       <c r="U90" t="n">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
@@ -6681,16 +6681,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3295085906982422</v>
+        <v>0.4007514953613281</v>
       </c>
       <c r="C91" t="n">
-        <v>0.008387791760948731</v>
+        <v>0.00455708818432866</v>
       </c>
       <c r="D91" t="n">
-        <v>0.009700679779052734</v>
+        <v>0.009194850921630859</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0008304426878626178</v>
+        <v>0.000399709270492881</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -6721,28 +6721,28 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>-0.1936282548320819</v>
+        <v>-0.3083852072528046</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.1926590153880722</v>
+        <v>-0.2804480795542205</v>
       </c>
       <c r="P91" t="n">
-        <v>-0.1960676078518164</v>
+        <v>-0.2626183165883462</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.1881543371690265</v>
+        <v>-0.3075389086775546</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.1889809315882593</v>
+        <v>-0.2843537082376315</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.1918980293658513</v>
+        <v>-0.2886688440621115</v>
       </c>
       <c r="T91" t="n">
-        <v>0.00294899492536797</v>
+        <v>0.01737610810278081</v>
       </c>
       <c r="U91" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
@@ -6750,16 +6750,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6168210983276368</v>
+        <v>0.7545331001281739</v>
       </c>
       <c r="C92" t="n">
-        <v>0.006194596632311615</v>
+        <v>0.01204210972593273</v>
       </c>
       <c r="D92" t="n">
-        <v>0.00970010757446289</v>
+        <v>0.007395744323730469</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0008227000074929997</v>
+        <v>0.0004898819678685542</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
@@ -6790,28 +6790,28 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>-0.1778903679653678</v>
+        <v>-0.294523611677494</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.1747561918399857</v>
+        <v>-0.2610712001768697</v>
       </c>
       <c r="P92" t="n">
-        <v>-0.1883212730318256</v>
+        <v>-0.2646863289454647</v>
       </c>
       <c r="Q92" t="n">
-        <v>-0.1644707858765204</v>
+        <v>-0.30274686415</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.1694824120603015</v>
+        <v>-0.2810215008359433</v>
       </c>
       <c r="S92" t="n">
-        <v>-0.1749842061548002</v>
+        <v>-0.2808099011571544</v>
       </c>
       <c r="T92" t="n">
-        <v>0.008089213362066999</v>
+        <v>0.01624147082787688</v>
       </c>
       <c r="U92" t="n">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
@@ -6819,16 +6819,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.247374296188354</v>
+        <v>1.507666921615601</v>
       </c>
       <c r="C93" t="n">
-        <v>0.011936562689375</v>
+        <v>0.02780115176415059</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01010584831237793</v>
+        <v>0.01359333992004394</v>
       </c>
       <c r="E93" t="n">
-        <v>1.531382410935131e-05</v>
+        <v>0.002727777792905841</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
@@ -6859,28 +6859,28 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>-0.1765804454769366</v>
+        <v>-0.295293323974132</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.1748046546110802</v>
+        <v>-0.2617596762191527</v>
       </c>
       <c r="P93" t="n">
-        <v>-0.1884591724858055</v>
+        <v>-0.2637338169695657</v>
       </c>
       <c r="Q93" t="n">
-        <v>-0.1673603350069701</v>
+        <v>-0.2956800057842758</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.1716460145527765</v>
+        <v>-0.2779280941042613</v>
       </c>
       <c r="S93" t="n">
-        <v>-0.1757701244267138</v>
+        <v>-0.2788789834102775</v>
       </c>
       <c r="T93" t="n">
-        <v>0.007075783110751946</v>
+        <v>0.01466325928742344</v>
       </c>
       <c r="U93" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
@@ -6888,16 +6888,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2973288059234619</v>
+        <v>0.3783657073974609</v>
       </c>
       <c r="C94" t="n">
-        <v>0.008531662951990541</v>
+        <v>0.01840242501610382</v>
       </c>
       <c r="D94" t="n">
-        <v>0.005644798278808594</v>
+        <v>0.00599665641784668</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004668138732427454</v>
+        <v>5.7220458984375e-07</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
@@ -6928,28 +6928,28 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>-0.1828578676350752</v>
+        <v>-0.2956085131050546</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.175442847190159</v>
+        <v>-0.2644756988343657</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.1819840395768048</v>
+        <v>-0.2582468552981491</v>
       </c>
       <c r="Q94" t="n">
-        <v>-0.1742880381356374</v>
+        <v>-0.299760049606108</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.1746500830895861</v>
+        <v>-0.2771749382980436</v>
       </c>
       <c r="S94" t="n">
-        <v>-0.1778445751254525</v>
+        <v>-0.2790532110283442</v>
       </c>
       <c r="T94" t="n">
-        <v>0.003765376462808316</v>
+        <v>0.01644255089530273</v>
       </c>
       <c r="U94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95">
@@ -6957,16 +6957,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5908833980560303</v>
+        <v>0.7419408798217774</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01877040626098774</v>
+        <v>0.01400007512473981</v>
       </c>
       <c r="D95" t="n">
-        <v>0.008482742309570312</v>
+        <v>0.009794425964355469</v>
       </c>
       <c r="E95" t="n">
-        <v>0.003222091850140788</v>
+        <v>0.0004000431413234966</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
@@ -6997,28 +6997,28 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>-0.1825019925195241</v>
+        <v>-0.2962122386611294</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.1755354467971966</v>
+        <v>-0.263193083734607</v>
       </c>
       <c r="P95" t="n">
-        <v>-0.1806751741158898</v>
+        <v>-0.2573168684404104</v>
       </c>
       <c r="Q95" t="n">
-        <v>-0.1733967312270307</v>
+        <v>-0.2956794547892011</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.1735166343288094</v>
+        <v>-0.2763113314037806</v>
       </c>
       <c r="S95" t="n">
-        <v>-0.1771251957976901</v>
+        <v>-0.2777425954058257</v>
       </c>
       <c r="T95" t="n">
-        <v>0.003767300223277556</v>
+        <v>0.01608605467538479</v>
       </c>
       <c r="U95" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
@@ -7026,16 +7026,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1932026386260986</v>
+        <v>0.2512449264526367</v>
       </c>
       <c r="C96" t="n">
-        <v>0.003208859748880264</v>
+        <v>0.007808166795866921</v>
       </c>
       <c r="D96" t="n">
-        <v>0.006045293807983398</v>
+        <v>0.005796337127685547</v>
       </c>
       <c r="E96" t="n">
-        <v>0.004220142565510738</v>
+        <v>0.0007474744917562042</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -7066,28 +7066,28 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>-0.1906720644736157</v>
+        <v>-0.3068006123417589</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.1911485977536024</v>
+        <v>-0.2785949543413347</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.1964865752242738</v>
+        <v>-0.2621979187463995</v>
       </c>
       <c r="Q96" t="n">
-        <v>-0.1882967220931527</v>
+        <v>-0.3047389211544996</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.1855922069573528</v>
+        <v>-0.283007446987743</v>
       </c>
       <c r="S96" t="n">
-        <v>-0.1904392333003995</v>
+        <v>-0.2870679707143471</v>
       </c>
       <c r="T96" t="n">
-        <v>0.003611419977524208</v>
+        <v>0.01678355730668714</v>
       </c>
       <c r="U96" t="n">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
@@ -7095,16 +7095,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3864820003509521</v>
+        <v>0.5066839218139648</v>
       </c>
       <c r="C97" t="n">
-        <v>0.008079304152524914</v>
+        <v>0.02014581255993858</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005257797241210937</v>
+        <v>0.00899500846862793</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003943334118416813</v>
+        <v>4.862803948967728e-07</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
@@ -7135,28 +7135,28 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>-0.1905943702908486</v>
+        <v>-0.3067029176253754</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.1908999595628427</v>
+        <v>-0.2794874353716627</v>
       </c>
       <c r="P97" t="n">
-        <v>-0.1951308521882038</v>
+        <v>-0.2620195492247747</v>
       </c>
       <c r="Q97" t="n">
-        <v>-0.1874749585200347</v>
+        <v>-0.3042261628090587</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.1858130515178435</v>
+        <v>-0.2830587674203958</v>
       </c>
       <c r="S97" t="n">
-        <v>-0.1899826384159546</v>
+        <v>-0.2870989664902535</v>
       </c>
       <c r="T97" t="n">
-        <v>0.003206047796879088</v>
+        <v>0.01661861329185135</v>
       </c>
       <c r="U97" t="n">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98">
@@ -7164,16 +7164,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3541140556335449</v>
+        <v>0.4119450569152832</v>
       </c>
       <c r="C98" t="n">
-        <v>0.004528061052555714</v>
+        <v>0.003865341157133234</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004841899871826172</v>
+        <v>0.00599675178527832</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004330675324028421</v>
+        <v>1.004758239064478e-06</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
@@ -7204,25 +7204,25 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>-0.1789131280596339</v>
+        <v>-0.286509855807677</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.1707853007391524</v>
+        <v>-0.2589494289327666</v>
       </c>
       <c r="P98" t="n">
-        <v>-0.1794545242024257</v>
+        <v>-0.2645056196217813</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.1669446255149189</v>
+        <v>-0.2950465971728037</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.1732887748749783</v>
+        <v>-0.2746061650048748</v>
       </c>
       <c r="S98" t="n">
-        <v>-0.1738772706782218</v>
+        <v>-0.2759235333079807</v>
       </c>
       <c r="T98" t="n">
-        <v>0.004784010677537806</v>
+        <v>0.0134013896829983</v>
       </c>
       <c r="U98" t="n">
         <v>12</v>
@@ -7233,16 +7233,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.7165963649749756</v>
+        <v>0.819093894958496</v>
       </c>
       <c r="C99" t="n">
-        <v>0.006015800656771529</v>
+        <v>0.01135225113536755</v>
       </c>
       <c r="D99" t="n">
-        <v>0.008086490631103515</v>
+        <v>0.009793663024902343</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003129761512808578</v>
+        <v>0.0003995424381711211</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
@@ -7273,28 +7273,28 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>-0.1771110504139394</v>
+        <v>-0.2902826208361316</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.170153604017289</v>
+        <v>-0.2589516901286961</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.17930742289835</v>
+        <v>-0.2627830313269281</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.1669830805461529</v>
+        <v>-0.2913935236123565</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.1718535376352493</v>
+        <v>-0.2740815174111018</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.1730817391021961</v>
+        <v>-0.2754984766630428</v>
       </c>
       <c r="T99" t="n">
-        <v>0.004522622656793494</v>
+        <v>0.01348117134882711</v>
       </c>
       <c r="U99" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -7302,16 +7302,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.261469030380249</v>
+        <v>0.3098066806793213</v>
       </c>
       <c r="C100" t="n">
-        <v>0.00436468848235085</v>
+        <v>0.006980394813129802</v>
       </c>
       <c r="D100" t="n">
-        <v>0.00727081298828125</v>
+        <v>0.00559701919555664</v>
       </c>
       <c r="E100" t="n">
-        <v>0.003749600772347773</v>
+        <v>0.0004897067609269814</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
@@ -7342,28 +7342,28 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>-0.1805891119614796</v>
+        <v>-0.2940118809808184</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.1750321247041859</v>
+        <v>-0.2643229251905892</v>
       </c>
       <c r="P100" t="n">
-        <v>-0.1806037853983083</v>
+        <v>-0.2614391300775117</v>
       </c>
       <c r="Q100" t="n">
-        <v>-0.1730666934798259</v>
+        <v>-0.2975805318545344</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.1737703377891791</v>
+        <v>-0.2773918542501926</v>
       </c>
       <c r="S100" t="n">
-        <v>-0.1766124106665958</v>
+        <v>-0.2789492644707293</v>
       </c>
       <c r="T100" t="n">
-        <v>0.003313367404009897</v>
+        <v>0.0148119321782014</v>
       </c>
       <c r="U100" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101">
@@ -7371,16 +7371,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.528063154220581</v>
+        <v>0.6619913578033447</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01582482039105579</v>
+        <v>0.0267311054795461</v>
       </c>
       <c r="D101" t="n">
-        <v>0.007660007476806641</v>
+        <v>0.01019315719604492</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002947369281165861</v>
+        <v>0.0003999254992566805</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
@@ -7411,28 +7411,28 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>-0.1814658402270893</v>
+        <v>-0.2945047938211215</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.1753986184080769</v>
+        <v>-0.2633641688176628</v>
       </c>
       <c r="P101" t="n">
-        <v>-0.1794391777667932</v>
+        <v>-0.2613393740321021</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.1724895390461111</v>
+        <v>-0.2955728198625629</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.1731674373882571</v>
+        <v>-0.2755326781537217</v>
       </c>
       <c r="S101" t="n">
-        <v>-0.1763921225672655</v>
+        <v>-0.2780627669374342</v>
       </c>
       <c r="T101" t="n">
-        <v>0.003511209462228184</v>
+        <v>0.01469056981666015</v>
       </c>
       <c r="U101" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -7440,16 +7440,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1953901767730713</v>
+        <v>0.2392520904541016</v>
       </c>
       <c r="C102" t="n">
-        <v>0.004483862511050538</v>
+        <v>0.01411342932103508</v>
       </c>
       <c r="D102" t="n">
-        <v>0.002428627014160156</v>
+        <v>0.005396509170532226</v>
       </c>
       <c r="E102" t="n">
-        <v>0.003915726280419172</v>
+        <v>0.0004901549359277602</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
@@ -7480,28 +7480,28 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>-0.1906287765529726</v>
+        <v>-0.3062781550679262</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.1907185329366337</v>
+        <v>-0.2783085697601284</v>
       </c>
       <c r="P102" t="n">
-        <v>-0.1966340016189154</v>
+        <v>-0.2640805287370515</v>
       </c>
       <c r="Q102" t="n">
-        <v>-0.1878614734099184</v>
+        <v>-0.3055706253826375</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.1860174450618694</v>
+        <v>-0.2841199914635509</v>
       </c>
       <c r="S102" t="n">
-        <v>-0.1903720459160619</v>
+        <v>-0.2876715740822589</v>
       </c>
       <c r="T102" t="n">
-        <v>0.003596208448012742</v>
+        <v>0.01626897601536838</v>
       </c>
       <c r="U102" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
@@ -7509,16 +7509,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3887768745422363</v>
+        <v>0.4583168029785156</v>
       </c>
       <c r="C103" t="n">
-        <v>0.005234441466245736</v>
+        <v>0.01226650992756069</v>
       </c>
       <c r="D103" t="n">
-        <v>0.006467103958129883</v>
+        <v>0.009194326400756837</v>
       </c>
       <c r="E103" t="n">
-        <v>0.003687959629067386</v>
+        <v>0.0003992561654462676</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
@@ -7549,28 +7549,28 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>-0.1905221132692327</v>
+        <v>-0.3059263634354668</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.1906291608878531</v>
+        <v>-0.2784115199326618</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.1952846518749733</v>
+        <v>-0.2637846950481856</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.1871033971670932</v>
+        <v>-0.3051178712648165</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.1859584041958457</v>
+        <v>-0.2836549063870567</v>
       </c>
       <c r="S103" t="n">
-        <v>-0.1898995454789996</v>
+        <v>-0.2873790712136375</v>
       </c>
       <c r="T103" t="n">
-        <v>0.003264056990623357</v>
+        <v>0.01618423950815702</v>
       </c>
       <c r="U103" t="n">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
@@ -7578,16 +7578,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2184287548065185</v>
+        <v>0.2412508964538574</v>
       </c>
       <c r="C104" t="n">
-        <v>0.004395865716970153</v>
+        <v>0.007549056623559515</v>
       </c>
       <c r="D104" t="n">
-        <v>0.00161128044128418</v>
+        <v>0.006196928024291992</v>
       </c>
       <c r="E104" t="n">
-        <v>0.003222560882568359</v>
+        <v>0.0004004481861379237</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
@@ -7618,28 +7618,28 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>-0.1865894013300955</v>
+        <v>-0.2966897546490599</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.1820843732416215</v>
+        <v>-0.2670591276677854</v>
       </c>
       <c r="P104" t="n">
-        <v>-0.1845463214982687</v>
+        <v>-0.2593813124363524</v>
       </c>
       <c r="Q104" t="n">
-        <v>-0.1738356417417043</v>
+        <v>-0.3023885740542779</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.1768219762000261</v>
+        <v>-0.2773657989601582</v>
       </c>
       <c r="S104" t="n">
-        <v>-0.1807755428023432</v>
+        <v>-0.2805769135535267</v>
       </c>
       <c r="T104" t="n">
-        <v>0.004764990570474583</v>
+        <v>0.01659920167280815</v>
       </c>
       <c r="U104" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105">
@@ -7647,16 +7647,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4327367782592774</v>
+        <v>0.4908961296081543</v>
       </c>
       <c r="C105" t="n">
-        <v>0.006576491298545064</v>
+        <v>0.009615366473042836</v>
       </c>
       <c r="D105" t="n">
-        <v>0.006471920013427735</v>
+        <v>0.009394454956054687</v>
       </c>
       <c r="E105" t="n">
-        <v>0.003695472035527459</v>
+        <v>0.0004896485520959788</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
@@ -7687,28 +7687,28 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>-0.1865300891418322</v>
+        <v>-0.2964830531482366</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.1826428430573237</v>
+        <v>-0.2675239421250249</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.184003919360228</v>
+        <v>-0.2578499355888912</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.1737675622084152</v>
+        <v>-0.3005061774754451</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.1775063675428223</v>
+        <v>-0.2775616697356775</v>
       </c>
       <c r="S105" t="n">
-        <v>-0.1808901562621243</v>
+        <v>-0.2799849556146551</v>
       </c>
       <c r="T105" t="n">
-        <v>0.004620771508559925</v>
+        <v>0.01639765868694857</v>
       </c>
       <c r="U105" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106">
@@ -7716,16 +7716,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2082776546478272</v>
+        <v>0.2350549697875977</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004126538593926793</v>
+        <v>0.004661968071601124</v>
       </c>
       <c r="D106" t="n">
-        <v>0.006083965301513672</v>
+        <v>0.005596303939819336</v>
       </c>
       <c r="E106" t="n">
-        <v>0.004224722678368461</v>
+        <v>0.0004893176341645481</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
@@ -7756,28 +7756,28 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>-0.1866993100501912</v>
+        <v>-0.2971988578435115</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.1834028984968638</v>
+        <v>-0.2687371277553964</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.18512042261397</v>
+        <v>-0.2596270132844554</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.1750256744815039</v>
+        <v>-0.3020531408179927</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.1766716212969382</v>
+        <v>-0.2783856215101272</v>
       </c>
       <c r="S106" t="n">
-        <v>-0.1813839853878934</v>
+        <v>-0.2812003522422967</v>
       </c>
       <c r="T106" t="n">
-        <v>0.00466742203919144</v>
+        <v>0.01624471975966458</v>
       </c>
       <c r="U106" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107">
@@ -7785,16 +7785,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.420240068435669</v>
+        <v>0.4693089962005615</v>
       </c>
       <c r="C107" t="n">
-        <v>0.007642330780061529</v>
+        <v>0.008816947943840447</v>
       </c>
       <c r="D107" t="n">
-        <v>0.007676076889038086</v>
+        <v>0.00959467887878418</v>
       </c>
       <c r="E107" t="n">
-        <v>0.002976494273712567</v>
+        <v>0.0004897850459088172</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
@@ -7825,28 +7825,28 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>-0.1869833600436614</v>
+        <v>-0.2976623126661246</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.1838650718738165</v>
+        <v>-0.2686672653410671</v>
       </c>
       <c r="P107" t="n">
-        <v>-0.1850590925997808</v>
+        <v>-0.2581493316723633</v>
       </c>
       <c r="Q107" t="n">
-        <v>-0.1744318415565969</v>
+        <v>-0.3006760715583341</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.1776596453036026</v>
+        <v>-0.2782726122454296</v>
       </c>
       <c r="S107" t="n">
-        <v>-0.1815998022754916</v>
+        <v>-0.2806855186966637</v>
       </c>
       <c r="T107" t="n">
-        <v>0.004753637091212993</v>
+        <v>0.01640715693868212</v>
       </c>
       <c r="U107" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
@@ -7854,16 +7854,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1749013423919678</v>
+        <v>0.1982770442962646</v>
       </c>
       <c r="C108" t="n">
-        <v>0.006543861929900099</v>
+        <v>0.003259571712104725</v>
       </c>
       <c r="D108" t="n">
-        <v>0.005242395401000977</v>
+        <v>0.005397319793701172</v>
       </c>
       <c r="E108" t="n">
-        <v>0.004346642138887326</v>
+        <v>0.0004899796827394952</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
@@ -7894,28 +7894,28 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>-0.1941927461950915</v>
+        <v>-0.3075498406314922</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.1929705002872169</v>
+        <v>-0.2798328095454724</v>
       </c>
       <c r="P108" t="n">
-        <v>-0.1976029458614464</v>
+        <v>-0.2621419429334084</v>
       </c>
       <c r="Q108" t="n">
-        <v>-0.1878835959188995</v>
+        <v>-0.3069280867732748</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.1884476398455743</v>
+        <v>-0.2849857466451286</v>
       </c>
       <c r="S108" t="n">
-        <v>-0.1922194856216457</v>
+        <v>-0.2882876853057553</v>
       </c>
       <c r="T108" t="n">
-        <v>0.003645989153713488</v>
+        <v>0.01723068635838175</v>
       </c>
       <c r="U108" t="n">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
@@ -7923,16 +7923,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3375896453857422</v>
+        <v>0.3893587112426758</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01136498707066127</v>
+        <v>0.004124972130080452</v>
       </c>
       <c r="D109" t="n">
-        <v>0.008070230484008789</v>
+        <v>0.009194660186767577</v>
       </c>
       <c r="E109" t="n">
-        <v>0.003102049240426626</v>
+        <v>0.000399566418700434</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
@@ -7963,28 +7963,3754 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>-0.1936282548320819</v>
+        <v>-0.3083852072528046</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.1926590153880722</v>
+        <v>-0.2804480795542205</v>
       </c>
       <c r="P109" t="n">
-        <v>-0.1960676078518164</v>
+        <v>-0.2626183165883462</v>
       </c>
       <c r="Q109" t="n">
-        <v>-0.1881543371690265</v>
+        <v>-0.3075389086775546</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.1889809315882593</v>
+        <v>-0.2843537082376315</v>
       </c>
       <c r="S109" t="n">
-        <v>-0.1918980293658513</v>
+        <v>-0.2886688440621115</v>
       </c>
       <c r="T109" t="n">
-        <v>0.00294899492536797</v>
+        <v>0.01737610810278081</v>
       </c>
       <c r="U109" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.904222726821899</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.03936307720347567</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.006596612930297852</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0004894346439283162</v>
+      </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>50</v>
+      </c>
+      <c r="L110" t="n">
+        <v>66</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.295885</v>
+      </c>
+      <c r="O110" t="n">
+        <v>-0.2668743718592964</v>
+      </c>
+      <c r="P110" t="n">
+        <v>-0.26035175879397</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>-0.2968040201005026</v>
+      </c>
+      <c r="R110" t="n">
+        <v>-0.2832060301507539</v>
+      </c>
+      <c r="S110" t="n">
+        <v>-0.2806242361809046</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.01484165818496202</v>
+      </c>
+      <c r="U110" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.174418973922729</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.2334334815172718</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.01279282569885254</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.002225419926754594</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>100</v>
+      </c>
+      <c r="L111" t="n">
+        <v>66</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.2972574999999996</v>
+      </c>
+      <c r="O111" t="n">
+        <v>-0.2650326633165826</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-0.2618065326633165</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-0.2917386934673369</v>
+      </c>
+      <c r="R111" t="n">
+        <v>-0.2799572864321609</v>
+      </c>
+      <c r="S111" t="n">
+        <v>-0.2791585351758793</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.01405064525844658</v>
+      </c>
+      <c r="U111" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.644011163711548</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1107624858650438</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.006195735931396484</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0004002096115242777</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>50</v>
+      </c>
+      <c r="K112" t="n">
+        <v>50</v>
+      </c>
+      <c r="L112" t="n">
+        <v>66</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.2954149999999999</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-0.2613718592964823</v>
+      </c>
+      <c r="P112" t="n">
+        <v>-0.2666180904522614</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>-0.295321608040201</v>
+      </c>
+      <c r="R112" t="n">
+        <v>-0.2844321608040202</v>
+      </c>
+      <c r="S112" t="n">
+        <v>-0.280631743718593</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.01425556435862322</v>
+      </c>
+      <c r="U112" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3.190603590011597</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.08071858404506405</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.009993982315063477</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0006314306636467789</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>50</v>
+      </c>
+      <c r="K113" t="n">
+        <v>100</v>
+      </c>
+      <c r="L113" t="n">
+        <v>66</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.2956224999999997</v>
+      </c>
+      <c r="O113" t="n">
+        <v>-0.2607085427135676</v>
+      </c>
+      <c r="P113" t="n">
+        <v>-0.2663391959798996</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-0.2937386934673368</v>
+      </c>
+      <c r="R113" t="n">
+        <v>-0.282748743718593</v>
+      </c>
+      <c r="S113" t="n">
+        <v>-0.2798315351758793</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.0141351037151833</v>
+      </c>
+      <c r="U113" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.114562320709229</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.07557479321598713</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.005996417999267578</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.00089345621552661</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>120</v>
+      </c>
+      <c r="K114" t="n">
+        <v>50</v>
+      </c>
+      <c r="L114" t="n">
+        <v>66</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.3093700000000004</v>
+      </c>
+      <c r="O114" t="n">
+        <v>-0.2629497487437185</v>
+      </c>
+      <c r="P114" t="n">
+        <v>-0.2607035175879399</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>-0.3046281407035176</v>
+      </c>
+      <c r="R114" t="n">
+        <v>-0.2806231155778897</v>
+      </c>
+      <c r="S114" t="n">
+        <v>-0.2836549045226132</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.0203263580287757</v>
+      </c>
+      <c r="U114" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.187434005737305</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1356076579344125</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.009596109390258789</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0007937220700453031</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>120</v>
+      </c>
+      <c r="K115" t="n">
+        <v>100</v>
+      </c>
+      <c r="L115" t="n">
+        <v>66</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>-0.3062524999999996</v>
+      </c>
+      <c r="O115" t="n">
+        <v>-0.2641005025125625</v>
+      </c>
+      <c r="P115" t="n">
+        <v>-0.2578542713567843</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>-0.3032311557788944</v>
+      </c>
+      <c r="R115" t="n">
+        <v>-0.2821959798994982</v>
+      </c>
+      <c r="S115" t="n">
+        <v>-0.2827268819095478</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.01969644930204994</v>
+      </c>
+      <c r="U115" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.525631618499756</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.02709980266376661</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.006396722793579101</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0004895326338773618</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" t="n">
+        <v>50</v>
+      </c>
+      <c r="L116" t="n">
+        <v>66</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>-0.2925749999999998</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-0.25721608040201</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-0.2644673366834172</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-0.2926482412060302</v>
+      </c>
+      <c r="R116" t="n">
+        <v>-0.2797437185929648</v>
+      </c>
+      <c r="S116" t="n">
+        <v>-0.2773300753768844</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.01444231591715056</v>
+      </c>
+      <c r="U116" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3.067740297317505</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.05388321143760031</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.01099386215209961</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.001548588813248151</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2</v>
+      </c>
+      <c r="K117" t="n">
+        <v>100</v>
+      </c>
+      <c r="L117" t="n">
+        <v>66</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.2894049999999996</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-0.2584321608040199</v>
+      </c>
+      <c r="P117" t="n">
+        <v>-0.2651733668341708</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>-0.2913819095477387</v>
+      </c>
+      <c r="R117" t="n">
+        <v>-0.279</v>
+      </c>
+      <c r="S117" t="n">
+        <v>-0.2766784874371858</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.01302950804939278</v>
+      </c>
+      <c r="U117" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.380393981933594</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.03720438203141573</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.006795787811279297</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0003993040626471768</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5</v>
+      </c>
+      <c r="J118" t="n">
+        <v>50</v>
+      </c>
+      <c r="K118" t="n">
+        <v>50</v>
+      </c>
+      <c r="L118" t="n">
+        <v>66</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.2934949999999998</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-0.2579195979899497</v>
+      </c>
+      <c r="P118" t="n">
+        <v>-0.264427135678392</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>-0.2980753768844221</v>
+      </c>
+      <c r="R118" t="n">
+        <v>-0.2822713567839197</v>
+      </c>
+      <c r="S118" t="n">
+        <v>-0.2792376934673367</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.01575529140326952</v>
+      </c>
+      <c r="U118" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.946505117416382</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1378588763222974</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.00999312400817871</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0006312043587424615</v>
+      </c>
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+      <c r="I119" t="n">
+        <v>5</v>
+      </c>
+      <c r="J119" t="n">
+        <v>50</v>
+      </c>
+      <c r="K119" t="n">
+        <v>100</v>
+      </c>
+      <c r="L119" t="n">
+        <v>66</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.2927674999999997</v>
+      </c>
+      <c r="O119" t="n">
+        <v>-0.260005025125628</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-0.2635000000000001</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>-0.2957236180904524</v>
+      </c>
+      <c r="R119" t="n">
+        <v>-0.2815753768844221</v>
+      </c>
+      <c r="S119" t="n">
+        <v>-0.2787143040201004</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.01467315224411907</v>
+      </c>
+      <c r="U119" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.020535135269165</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.05048383423790283</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.006386184692382812</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0007795585169053659</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5</v>
+      </c>
+      <c r="J120" t="n">
+        <v>120</v>
+      </c>
+      <c r="K120" t="n">
+        <v>50</v>
+      </c>
+      <c r="L120" t="n">
+        <v>66</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>-0.3073250000000003</v>
+      </c>
+      <c r="O120" t="n">
+        <v>-0.2637236180904523</v>
+      </c>
+      <c r="P120" t="n">
+        <v>-0.2588592964824122</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>-0.3044522613065326</v>
+      </c>
+      <c r="R120" t="n">
+        <v>-0.2802010050251258</v>
+      </c>
+      <c r="S120" t="n">
+        <v>-0.2829122361809046</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.0200701443265376</v>
+      </c>
+      <c r="U120" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.079020881652832</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1321345385955091</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.009594869613647462</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0004901350999649207</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+      <c r="I121" t="n">
+        <v>5</v>
+      </c>
+      <c r="J121" t="n">
+        <v>120</v>
+      </c>
+      <c r="K121" t="n">
+        <v>100</v>
+      </c>
+      <c r="L121" t="n">
+        <v>66</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>-0.3064849999999996</v>
+      </c>
+      <c r="O121" t="n">
+        <v>-0.264402010050251</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-0.2574095477386938</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>-0.3035778894472363</v>
+      </c>
+      <c r="R121" t="n">
+        <v>-0.2812336683417092</v>
+      </c>
+      <c r="S121" t="n">
+        <v>-0.282621623115578</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.01989047670824192</v>
+      </c>
+      <c r="U121" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9978738784790039</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.002116515016097944</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.00619654655456543</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0004000427434622774</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+      <c r="I122" t="n">
+        <v>20</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>50</v>
+      </c>
+      <c r="L122" t="n">
+        <v>66</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>-0.302325</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-0.2608693467336683</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-0.2606733668341709</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>-0.3011608040201006</v>
+      </c>
+      <c r="R122" t="n">
+        <v>-0.2803266331658292</v>
+      </c>
+      <c r="S122" t="n">
+        <v>-0.2810710301507538</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.01833061404866809</v>
+      </c>
+      <c r="U122" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.119605302810669</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.1127174374450301</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.01099376678466797</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.002606010860172816</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+      <c r="I123" t="n">
+        <v>20</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>100</v>
+      </c>
+      <c r="L123" t="n">
+        <v>66</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.3019074999999999</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-0.2593216080402007</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-0.2572638190954772</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>-0.3003266331658293</v>
+      </c>
+      <c r="R123" t="n">
+        <v>-0.2797864321608039</v>
+      </c>
+      <c r="S123" t="n">
+        <v>-0.2797211984924622</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.01916923236905107</v>
+      </c>
+      <c r="U123" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.041556596755981</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.06592388936996602</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.007395076751708985</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.002331963073432885</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+      <c r="I124" t="n">
+        <v>20</v>
+      </c>
+      <c r="J124" t="n">
+        <v>50</v>
+      </c>
+      <c r="K124" t="n">
+        <v>50</v>
+      </c>
+      <c r="L124" t="n">
+        <v>66</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.30424</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-0.2608140703517588</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-0.2607386934673366</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>-0.3011005025125629</v>
+      </c>
+      <c r="R124" t="n">
+        <v>-0.2796532663316583</v>
+      </c>
+      <c r="S124" t="n">
+        <v>-0.2813093065326633</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.01878007155657051</v>
+      </c>
+      <c r="U124" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.993435001373291</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.04137019465377712</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.009793758392333984</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.0007478207522645346</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+      <c r="I125" t="n">
+        <v>20</v>
+      </c>
+      <c r="J125" t="n">
+        <v>50</v>
+      </c>
+      <c r="K125" t="n">
+        <v>100</v>
+      </c>
+      <c r="L125" t="n">
+        <v>66</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.3038499999999997</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-0.2600477386934671</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-0.258256281407035</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>-0.3004346733668343</v>
+      </c>
+      <c r="R125" t="n">
+        <v>-0.2799497487437184</v>
+      </c>
+      <c r="S125" t="n">
+        <v>-0.2805076884422109</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.01926652118323592</v>
+      </c>
+      <c r="U125" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.8731245994567871</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.01853058739091982</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.006396102905273438</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0007997519782864144</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+      <c r="I126" t="n">
+        <v>20</v>
+      </c>
+      <c r="J126" t="n">
+        <v>120</v>
+      </c>
+      <c r="K126" t="n">
+        <v>50</v>
+      </c>
+      <c r="L126" t="n">
+        <v>66</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>-0.310765</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-0.2651256281407034</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-0.2580452261306534</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>-0.3065628140703518</v>
+      </c>
+      <c r="R126" t="n">
+        <v>-0.2809748743718593</v>
+      </c>
+      <c r="S126" t="n">
+        <v>-0.2842947085427135</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.02127935677084944</v>
+      </c>
+      <c r="U126" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.690754222869873</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.04487473638744979</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.009394025802612305</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.0004904856180870789</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+      <c r="I127" t="n">
+        <v>20</v>
+      </c>
+      <c r="J127" t="n">
+        <v>120</v>
+      </c>
+      <c r="K127" t="n">
+        <v>100</v>
+      </c>
+      <c r="L127" t="n">
+        <v>66</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>-0.3107024999999997</v>
+      </c>
+      <c r="O127" t="n">
+        <v>-0.2655201005025121</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-0.2561834170854273</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>-0.305070351758794</v>
+      </c>
+      <c r="R127" t="n">
+        <v>-0.2812135678391963</v>
+      </c>
+      <c r="S127" t="n">
+        <v>-0.2837379874371859</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.02135262583965377</v>
+      </c>
+      <c r="U127" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.34315242767334</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.05278627068297733</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.007196569442749023</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0007465159549155791</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>15</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>50</v>
+      </c>
+      <c r="L128" t="n">
+        <v>66</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>-0.2951599999999999</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-0.2669648241206029</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-0.2639597989949748</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>-0.2967788944723619</v>
+      </c>
+      <c r="R128" t="n">
+        <v>-0.2824673366834172</v>
+      </c>
+      <c r="S128" t="n">
+        <v>-0.2810661708542713</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.01370375793028998</v>
+      </c>
+      <c r="U128" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.756233501434326</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.1247357920832496</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0115933895111084</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.0007999786653705195</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>15</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2</v>
+      </c>
+      <c r="K129" t="n">
+        <v>100</v>
+      </c>
+      <c r="L129" t="n">
+        <v>66</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>-0.2955849999999997</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-0.2667010050251254</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-0.2625301507537688</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>-0.2927638190954773</v>
+      </c>
+      <c r="R129" t="n">
+        <v>-0.2809497487437186</v>
+      </c>
+      <c r="S129" t="n">
+        <v>-0.279705944723618</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0.01332918514447302</v>
+      </c>
+      <c r="U129" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.759163808822632</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0653085829031007</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.006595277786254882</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.0004899030764878759</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>15</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>50</v>
+      </c>
+      <c r="K130" t="n">
+        <v>50</v>
+      </c>
+      <c r="L130" t="n">
+        <v>66</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>-0.2964399999999999</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-0.2626532663316583</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-0.2663065326633168</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>-0.2952864321608041</v>
+      </c>
+      <c r="R130" t="n">
+        <v>-0.2825527638190955</v>
+      </c>
+      <c r="S130" t="n">
+        <v>-0.2806477989949749</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0.01411939949356689</v>
+      </c>
+      <c r="U130" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3.475928974151612</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.1543210222420351</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.009993982315063477</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.511442963078249e-06</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>15</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>50</v>
+      </c>
+      <c r="K131" t="n">
+        <v>100</v>
+      </c>
+      <c r="L131" t="n">
+        <v>66</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>-0.2963099999999997</v>
+      </c>
+      <c r="O131" t="n">
+        <v>-0.2633291457286432</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-0.2668492462311558</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>-0.2930829145728645</v>
+      </c>
+      <c r="R131" t="n">
+        <v>-0.2811005025125629</v>
+      </c>
+      <c r="S131" t="n">
+        <v>-0.2801343618090452</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0.01333536126880672</v>
+      </c>
+      <c r="U131" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.106180047988892</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.09486863097492947</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.006804800033569336</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.00159444690741721</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>15</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>120</v>
+      </c>
+      <c r="K132" t="n">
+        <v>50</v>
+      </c>
+      <c r="L132" t="n">
+        <v>66</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>-0.3088100000000004</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-0.2627889447236181</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-0.2607035175879399</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>-0.3046281407035176</v>
+      </c>
+      <c r="R132" t="n">
+        <v>-0.2806633165829148</v>
+      </c>
+      <c r="S132" t="n">
+        <v>-0.2835187839195982</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0.02021715538468731</v>
+      </c>
+      <c r="U132" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.207826232910156</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.1806736485034058</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.009397649765014648</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0004924133343670411</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>15</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>120</v>
+      </c>
+      <c r="K133" t="n">
+        <v>100</v>
+      </c>
+      <c r="L133" t="n">
+        <v>66</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>-0.3055649999999996</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-0.2640653266331655</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-0.2577788944723622</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>-0.303145728643216</v>
+      </c>
+      <c r="R133" t="n">
+        <v>-0.2823115577889454</v>
+      </c>
+      <c r="S133" t="n">
+        <v>-0.2825733015075378</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.01954082506841328</v>
+      </c>
+      <c r="U133" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.568230438232422</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.04097873420466516</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.006795787811279297</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.0007485581711576202</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>15</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>50</v>
+      </c>
+      <c r="L134" t="n">
+        <v>66</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>-0.2915249999999998</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-0.258572864321608</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-0.2603618090452262</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>-0.297211055276382</v>
+      </c>
+      <c r="R134" t="n">
+        <v>-0.2815678391959799</v>
+      </c>
+      <c r="S134" t="n">
+        <v>-0.2778477135678392</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0.01583112864831302</v>
+      </c>
+      <c r="U134" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3.327144289016724</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.2053071523120631</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.01059355735778809</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.001199293141336423</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>15</v>
+      </c>
+      <c r="I135" t="n">
+        <v>5</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>100</v>
+      </c>
+      <c r="L135" t="n">
+        <v>66</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>-0.2880749999999996</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-0.2599246231155775</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-0.2620301507537688</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>-0.2944673366834173</v>
+      </c>
+      <c r="R135" t="n">
+        <v>-0.2777713567839195</v>
+      </c>
+      <c r="S135" t="n">
+        <v>-0.2764536934673366</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0.0137297566996779</v>
+      </c>
+      <c r="U135" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.409336853027344</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.04494282874773668</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.006197834014892578</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0004030943586704007</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>15</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>50</v>
+      </c>
+      <c r="K136" t="n">
+        <v>50</v>
+      </c>
+      <c r="L136" t="n">
+        <v>66</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>-0.2936449999999999</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-0.258321608040201</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-0.2632663316582915</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>-0.2987738693467338</v>
+      </c>
+      <c r="R136" t="n">
+        <v>-0.2822964824120603</v>
+      </c>
+      <c r="S136" t="n">
+        <v>-0.2792606582914573</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0.01606955649693015</v>
+      </c>
+      <c r="U136" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.737106895446777</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.07664849090409562</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.01019444465637207</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0003997564422442247</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>15</v>
+      </c>
+      <c r="I137" t="n">
+        <v>5</v>
+      </c>
+      <c r="J137" t="n">
+        <v>50</v>
+      </c>
+      <c r="K137" t="n">
+        <v>100</v>
+      </c>
+      <c r="L137" t="n">
+        <v>66</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>-0.2928074999999997</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-0.2605452261306531</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-0.263791457286432</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>-0.296168341708543</v>
+      </c>
+      <c r="R137" t="n">
+        <v>-0.2809497487437186</v>
+      </c>
+      <c r="S137" t="n">
+        <v>-0.2788524547738693</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0.01456688117275146</v>
+      </c>
+      <c r="U137" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.016370248794556</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0460361735450431</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.005997419357299805</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.365453821494708e-06</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>15</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5</v>
+      </c>
+      <c r="J138" t="n">
+        <v>120</v>
+      </c>
+      <c r="K138" t="n">
+        <v>50</v>
+      </c>
+      <c r="L138" t="n">
+        <v>66</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>-0.3072650000000003</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-0.2637236180904523</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-0.2588592964824122</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>-0.3044522613065326</v>
+      </c>
+      <c r="R138" t="n">
+        <v>-0.2802010050251258</v>
+      </c>
+      <c r="S138" t="n">
+        <v>-0.2829002361809047</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.02005555690965451</v>
+      </c>
+      <c r="U138" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.070119667053222</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.1137279727348605</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.009194564819335938</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0007482149291745678</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>15</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5</v>
+      </c>
+      <c r="J139" t="n">
+        <v>120</v>
+      </c>
+      <c r="K139" t="n">
+        <v>100</v>
+      </c>
+      <c r="L139" t="n">
+        <v>66</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>-0.3064349999999996</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-0.264402010050251</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-0.2574095477386938</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>-0.3035778894472363</v>
+      </c>
+      <c r="R139" t="n">
+        <v>-0.2811407035175885</v>
+      </c>
+      <c r="S139" t="n">
+        <v>-0.2825930301507539</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0.01987980934179373</v>
+      </c>
+      <c r="U139" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9933859348297119</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.03328399001200733</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.005796432495117188</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0003998281988417293</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>15</v>
+      </c>
+      <c r="I140" t="n">
+        <v>20</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>50</v>
+      </c>
+      <c r="L140" t="n">
+        <v>66</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>-0.302325</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-0.2608693467336683</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-0.2606733668341709</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>-0.3011608040201006</v>
+      </c>
+      <c r="R140" t="n">
+        <v>-0.2803266331658292</v>
+      </c>
+      <c r="S140" t="n">
+        <v>-0.2810710301507538</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0.01833061404866809</v>
+      </c>
+      <c r="U140" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.018333625793457</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.04186885441190991</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.009595060348510742</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0004913626935458547</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>15</v>
+      </c>
+      <c r="I141" t="n">
+        <v>20</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>100</v>
+      </c>
+      <c r="L141" t="n">
+        <v>66</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>-0.3019074999999999</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-0.2593216080402007</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-0.2572638190954772</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>-0.3003266331658293</v>
+      </c>
+      <c r="R141" t="n">
+        <v>-0.2797864321608039</v>
+      </c>
+      <c r="S141" t="n">
+        <v>-0.2797211984924622</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0.01916923236905107</v>
+      </c>
+      <c r="U141" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9919985294342041</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.01389011098520677</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.005798244476318359</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0003962049559993472</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>15</v>
+      </c>
+      <c r="I142" t="n">
+        <v>20</v>
+      </c>
+      <c r="J142" t="n">
+        <v>50</v>
+      </c>
+      <c r="K142" t="n">
+        <v>50</v>
+      </c>
+      <c r="L142" t="n">
+        <v>66</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>-0.30424</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-0.2608140703517588</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-0.2607386934673366</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>-0.3011005025125629</v>
+      </c>
+      <c r="R142" t="n">
+        <v>-0.2796532663316583</v>
+      </c>
+      <c r="S142" t="n">
+        <v>-0.2813093065326633</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0.01878007155657051</v>
+      </c>
+      <c r="U142" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.959790754318237</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0150380066477814</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.009195184707641602</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.0004001449296417342</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>15</v>
+      </c>
+      <c r="I143" t="n">
+        <v>20</v>
+      </c>
+      <c r="J143" t="n">
+        <v>50</v>
+      </c>
+      <c r="K143" t="n">
+        <v>100</v>
+      </c>
+      <c r="L143" t="n">
+        <v>66</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>-0.3038499999999997</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-0.2600477386934671</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-0.258256281407035</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>-0.3004346733668343</v>
+      </c>
+      <c r="R143" t="n">
+        <v>-0.2799497487437184</v>
+      </c>
+      <c r="S143" t="n">
+        <v>-0.2805076884422109</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0.01926652118323592</v>
+      </c>
+      <c r="U143" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.8465215682983398</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.01117444687979687</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.005996894836425781</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.917393515582492e-07</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>15</v>
+      </c>
+      <c r="I144" t="n">
+        <v>20</v>
+      </c>
+      <c r="J144" t="n">
+        <v>120</v>
+      </c>
+      <c r="K144" t="n">
+        <v>50</v>
+      </c>
+      <c r="L144" t="n">
+        <v>66</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>-0.310765</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-0.2651256281407034</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-0.2580452261306534</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>-0.3065628140703518</v>
+      </c>
+      <c r="R144" t="n">
+        <v>-0.2809748743718593</v>
+      </c>
+      <c r="S144" t="n">
+        <v>-0.2842947085427135</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.02127935677084944</v>
+      </c>
+      <c r="U144" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.764628076553345</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.08249430204555294</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.009594154357910157</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.0004897466849528421</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>15</v>
+      </c>
+      <c r="I145" t="n">
+        <v>20</v>
+      </c>
+      <c r="J145" t="n">
+        <v>120</v>
+      </c>
+      <c r="K145" t="n">
+        <v>100</v>
+      </c>
+      <c r="L145" t="n">
+        <v>66</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 15, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>-0.3107024999999997</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-0.2655201005025121</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-0.2561834170854273</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>-0.305070351758794</v>
+      </c>
+      <c r="R145" t="n">
+        <v>-0.2812135678391963</v>
+      </c>
+      <c r="S145" t="n">
+        <v>-0.2837379874371859</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0.02135262583965377</v>
+      </c>
+      <c r="U145" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.638968324661255</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.1716384651725205</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.007395887374877929</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0004895706539908728</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>22</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2</v>
+      </c>
+      <c r="K146" t="n">
+        <v>50</v>
+      </c>
+      <c r="L146" t="n">
+        <v>66</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>-0.2955599999999998</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-0.2688592964824119</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-0.2664673366834172</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>-0.2958241206030152</v>
+      </c>
+      <c r="R146" t="n">
+        <v>-0.2873567839195981</v>
+      </c>
+      <c r="S146" t="n">
+        <v>-0.2828135075376884</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0.01276172237969514</v>
+      </c>
+      <c r="U146" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.769891929626465</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.2108876318480743</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.01339201927185059</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.001199270170423476</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>22</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>100</v>
+      </c>
+      <c r="L147" t="n">
+        <v>66</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>-0.2939599999999997</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-0.2709346733668339</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-0.2634949748743718</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>-0.2936683417085428</v>
+      </c>
+      <c r="R147" t="n">
+        <v>-0.2833366834170855</v>
+      </c>
+      <c r="S147" t="n">
+        <v>-0.2810789346733668</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0.01217878583853069</v>
+      </c>
+      <c r="U147" t="n">
         <v>97</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.104906892776489</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.2077884907138062</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.008794450759887695</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.002711037916356958</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>22</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>50</v>
+      </c>
+      <c r="K148" t="n">
+        <v>50</v>
+      </c>
+      <c r="L148" t="n">
+        <v>66</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>-0.29438</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-0.2645075376884422</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-0.2655577889447236</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>-0.2970603015075378</v>
+      </c>
+      <c r="R148" t="n">
+        <v>-0.2830402010050252</v>
+      </c>
+      <c r="S148" t="n">
+        <v>-0.2809091658291457</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0.01379523139200502</v>
+      </c>
+      <c r="U148" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.114232969284058</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.3566353461056068</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.01159453392028809</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.00162328881044214</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>22</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>50</v>
+      </c>
+      <c r="K149" t="n">
+        <v>100</v>
+      </c>
+      <c r="L149" t="n">
+        <v>66</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>-0.2954974999999998</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-0.2639497487437185</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-0.2671180904522612</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>-0.2946934673366835</v>
+      </c>
+      <c r="R149" t="n">
+        <v>-0.2821658291457287</v>
+      </c>
+      <c r="S149" t="n">
+        <v>-0.2806849271356783</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0.01328133907098688</v>
+      </c>
+      <c r="U149" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.101717710494995</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.05059860860704838</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.006796836853027344</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.001165075843140691</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>22</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>120</v>
+      </c>
+      <c r="K150" t="n">
+        <v>50</v>
+      </c>
+      <c r="L150" t="n">
+        <v>66</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>-0.3088750000000003</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-0.2627889447236181</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-0.2607035175879399</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>-0.3046281407035176</v>
+      </c>
+      <c r="R150" t="n">
+        <v>-0.2806633165829148</v>
+      </c>
+      <c r="S150" t="n">
+        <v>-0.2835317839195982</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0.02023342826776227</v>
+      </c>
+      <c r="U150" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2.472471475601196</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.1169947049579805</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.01039433479309082</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.001020348893144946</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>22</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>120</v>
+      </c>
+      <c r="K151" t="n">
+        <v>100</v>
+      </c>
+      <c r="L151" t="n">
+        <v>66</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>-0.3055924999999997</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-0.2640653266331655</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-0.2577788944723622</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>-0.303145728643216</v>
+      </c>
+      <c r="R151" t="n">
+        <v>-0.2823919597989957</v>
+      </c>
+      <c r="S151" t="n">
+        <v>-0.2825948819095478</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0.01954710499235634</v>
+      </c>
+      <c r="U151" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.743521022796631</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.07302671041743135</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.008595705032348633</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.001020956929141297</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>22</v>
+      </c>
+      <c r="I152" t="n">
+        <v>5</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2</v>
+      </c>
+      <c r="K152" t="n">
+        <v>50</v>
+      </c>
+      <c r="L152" t="n">
+        <v>66</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>-0.2938049999999998</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-0.2589547738693467</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-0.2629899497487438</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>-0.2960050251256283</v>
+      </c>
+      <c r="R152" t="n">
+        <v>-0.2808592964824121</v>
+      </c>
+      <c r="S152" t="n">
+        <v>-0.2785228090452261</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0.01528927814890513</v>
+      </c>
+      <c r="U152" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3.583581972122192</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.1207802588347257</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.01279201507568359</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.001717386499635013</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>22</v>
+      </c>
+      <c r="I153" t="n">
+        <v>5</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="n">
+        <v>100</v>
+      </c>
+      <c r="L153" t="n">
+        <v>66</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>-0.2898949999999996</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-0.2608592964824118</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-0.2643718592964823</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>-0.2934472361809046</v>
+      </c>
+      <c r="R153" t="n">
+        <v>-0.2775552763819094</v>
+      </c>
+      <c r="S153" t="n">
+        <v>-0.2772257336683416</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0.01309074790893297</v>
+      </c>
+      <c r="U153" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.571831846237183</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.08018083540513743</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.009391975402832032</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.002417038875472689</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>22</v>
+      </c>
+      <c r="I154" t="n">
+        <v>5</v>
+      </c>
+      <c r="J154" t="n">
+        <v>50</v>
+      </c>
+      <c r="K154" t="n">
+        <v>50</v>
+      </c>
+      <c r="L154" t="n">
+        <v>66</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>-0.2938899999999999</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-0.2583316582914573</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-0.2636080402010051</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>-0.2987738693467338</v>
+      </c>
+      <c r="R154" t="n">
+        <v>-0.2822964824120603</v>
+      </c>
+      <c r="S154" t="n">
+        <v>-0.2793800100502513</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0.01604341324331091</v>
+      </c>
+      <c r="U154" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3.25858416557312</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.1726922405087574</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.01259517669677734</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.000800135408449365</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>22</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>50</v>
+      </c>
+      <c r="K155" t="n">
+        <v>100</v>
+      </c>
+      <c r="L155" t="n">
+        <v>66</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>-0.2929224999999997</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-0.2605603015075375</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-0.263756281407035</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>-0.2961281407035178</v>
+      </c>
+      <c r="R155" t="n">
+        <v>-0.2809748743718593</v>
+      </c>
+      <c r="S155" t="n">
+        <v>-0.2788684195979899</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0.01458366352476351</v>
+      </c>
+      <c r="U155" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.14649167060852</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.08034860697747778</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.007792949676513672</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.002228044851129959</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>22</v>
+      </c>
+      <c r="I156" t="n">
+        <v>5</v>
+      </c>
+      <c r="J156" t="n">
+        <v>120</v>
+      </c>
+      <c r="K156" t="n">
+        <v>50</v>
+      </c>
+      <c r="L156" t="n">
+        <v>66</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>-0.3072650000000003</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-0.2637236180904523</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-0.2588592964824122</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>-0.3044522613065326</v>
+      </c>
+      <c r="R156" t="n">
+        <v>-0.2802010050251258</v>
+      </c>
+      <c r="S156" t="n">
+        <v>-0.2829002361809047</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0.02005555690965451</v>
+      </c>
+      <c r="U156" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2.272190141677856</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.1254621180072553</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.01199240684509277</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.002190167433447859</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>22</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5</v>
+      </c>
+      <c r="J157" t="n">
+        <v>120</v>
+      </c>
+      <c r="K157" t="n">
+        <v>100</v>
+      </c>
+      <c r="L157" t="n">
+        <v>66</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>-0.3064349999999996</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-0.264402010050251</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-0.2574095477386938</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>-0.3035778894472363</v>
+      </c>
+      <c r="R157" t="n">
+        <v>-0.2811407035175885</v>
+      </c>
+      <c r="S157" t="n">
+        <v>-0.2825930301507539</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0.01987980934179373</v>
+      </c>
+      <c r="U157" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.172670793533325</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.01836783002546095</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.008396434783935546</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.00101794654874413</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>22</v>
+      </c>
+      <c r="I158" t="n">
+        <v>20</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>50</v>
+      </c>
+      <c r="L158" t="n">
+        <v>66</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>-0.302325</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-0.2608693467336683</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-0.2606733668341709</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>-0.3011608040201006</v>
+      </c>
+      <c r="R158" t="n">
+        <v>-0.2803266331658292</v>
+      </c>
+      <c r="S158" t="n">
+        <v>-0.2810710301507538</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0.01833061404866809</v>
+      </c>
+      <c r="U158" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2.257603645324707</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.05372677707571497</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.01299104690551758</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.002528055807820046</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>22</v>
+      </c>
+      <c r="I159" t="n">
+        <v>20</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>100</v>
+      </c>
+      <c r="L159" t="n">
+        <v>66</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>-0.3019074999999999</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-0.2593216080402007</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-0.2572638190954772</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>-0.3003266331658293</v>
+      </c>
+      <c r="R159" t="n">
+        <v>-0.2797864321608039</v>
+      </c>
+      <c r="S159" t="n">
+        <v>-0.2797211984924622</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0.01916923236905107</v>
+      </c>
+      <c r="U159" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.130701875686646</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.02413240206140848</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.008994245529174804</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.001790805193846504</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>22</v>
+      </c>
+      <c r="I160" t="n">
+        <v>20</v>
+      </c>
+      <c r="J160" t="n">
+        <v>50</v>
+      </c>
+      <c r="K160" t="n">
+        <v>50</v>
+      </c>
+      <c r="L160" t="n">
+        <v>66</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>-0.30424</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-0.2608140703517588</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-0.2607386934673366</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>-0.3011005025125629</v>
+      </c>
+      <c r="R160" t="n">
+        <v>-0.2796532663316583</v>
+      </c>
+      <c r="S160" t="n">
+        <v>-0.2813093065326633</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0.01878007155657051</v>
+      </c>
+      <c r="U160" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2.265598726272583</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.07049028200263081</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.0133915901184082</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.001357297028616691</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>22</v>
+      </c>
+      <c r="I161" t="n">
+        <v>20</v>
+      </c>
+      <c r="J161" t="n">
+        <v>50</v>
+      </c>
+      <c r="K161" t="n">
+        <v>100</v>
+      </c>
+      <c r="L161" t="n">
+        <v>66</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>-0.3038499999999997</v>
+      </c>
+      <c r="O161" t="n">
+        <v>-0.2600477386934671</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-0.258256281407035</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>-0.3004346733668343</v>
+      </c>
+      <c r="R161" t="n">
+        <v>-0.2799497487437184</v>
+      </c>
+      <c r="S161" t="n">
+        <v>-0.2805076884422109</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0.01926652118323592</v>
+      </c>
+      <c r="U161" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9939862251281738</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.03389355583362724</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.00859379768371582</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.00185482807082067</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>22</v>
+      </c>
+      <c r="I162" t="n">
+        <v>20</v>
+      </c>
+      <c r="J162" t="n">
+        <v>120</v>
+      </c>
+      <c r="K162" t="n">
+        <v>50</v>
+      </c>
+      <c r="L162" t="n">
+        <v>66</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>-0.310765</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-0.2651256281407034</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-0.2580452261306534</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>-0.3065628140703518</v>
+      </c>
+      <c r="R162" t="n">
+        <v>-0.2809748743718593</v>
+      </c>
+      <c r="S162" t="n">
+        <v>-0.2842947085427135</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0.02127935677084944</v>
+      </c>
+      <c r="U162" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.886633586883545</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.03805883105358843</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.01159629821777344</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.001019424199761757</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>absolute_error</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>22</v>
+      </c>
+      <c r="I163" t="n">
+        <v>20</v>
+      </c>
+      <c r="J163" t="n">
+        <v>120</v>
+      </c>
+      <c r="K163" t="n">
+        <v>100</v>
+      </c>
+      <c r="L163" t="n">
+        <v>66</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>{'bootstrap': True, 'criterion': 'absolute_error', 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>-0.3107024999999997</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-0.2655201005025121</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-0.2561834170854273</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>-0.305070351758794</v>
+      </c>
+      <c r="R163" t="n">
+        <v>-0.2812135678391963</v>
+      </c>
+      <c r="S163" t="n">
+        <v>-0.2837379874371859</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0.02135262583965377</v>
+      </c>
+      <c r="U163" t="n">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
